--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -385,6 +385,9 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほらおいでぇ♥
 自分から精を捧げに来るのよ。
 それが精奴隷の仕事でしょ？くすくす♥</t>
@@ -524,6 +527,9 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;どこ行こうとしてるにゃん？
 どーせアタシを探してたんだろー？
 ほら、舐めろにゃ。</t>
@@ -591,16 +597,31 @@
 そのままじっとしてろにゃ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Sluuurp♥
+It feels so good that you can't move?♥
+ Then just stay still♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほら出せ♥
 れろれろれろぉ♥
 ぜーんぶ飲み干してやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hey, look!♥
+Flick,flick, flick♥
+I'll drink it allll up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシに食べられたくて待ってたにゃ？
 にゃは♥
 その顔見れば分かるし♥じゅる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you waiting for me to swallow it down?
+Nyaha♥
+You can tell just by looking at your face♥ Shlurrrrp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;お前の精子アタシのお腹で溶かして殺してやるにゃ。
 じゅるるるる♥</t>
   </si>
@@ -615,13 +636,27 @@
 ソッコー搾り取ってやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I caught you!
+Nyahaha♥
+I'll wring you dry♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちんこビンビンにしてどこ行くにゃぁ？
 ほら、アタシの手とセックスしてくにゃ♥
 ほらほらほらァー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where are you gonna cum?
+Look, I can fuck you with my hands.
+Look♥ Look♥ Look♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ここ掴まれたらもう終わりにゃぁ？
 人間ってバカだもんにゃぁ。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;"If I grab you right here, you're done for? 
+Humans are stupid."</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
@@ -629,9 +664,19 @@
 素直になっていいにゃぁ～？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Maybe you got caught on purpose?
+Hey, look.
+Isn't it okay to be honest?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ♥もうダメにゃぁ♥
 イクイクイクーって震えてるし♥
 負けろ負けろー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aww♥ You're done for, nya♥
+You're shaking so hard, about to cum♥
+Give in, give in♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;にゃっは♥もうイったにゃ♥
@@ -1338,7 +1383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,1284 +1391,1314 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>171</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>175</v>
+      </c>
+      <c r="C168" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miBcQcywzLQdU+/mbSaJVhWmJMRYQ=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="425">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -102,16 +103,31 @@
 ちゅーしよ♥ちゅー♪</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;I caught you ♥
+Let me give you a kiss♥ *pucker*
+</t>
+  </si>
+  <si>
     <t>クラスタ誘惑</t>
   </si>
   <si>
+    <t>Group temptation</t>
+  </si>
+  <si>
     <t>クラスタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group </t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ほら♥ここ舐めていいよ♥
 いっぱいペロペロして♥</t>
   </si>
   <si>
+    <t>Here, you can lick here.
+Lots of licking and sucking.</t>
+  </si>
+  <si>
     <t>キエリ誘惑</t>
   </si>
   <si>
@@ -122,10 +138,20 @@
 おねだり出来たら滅茶苦茶に扱いてやるぞ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You want me to touch you, don't you?♥
+If you can beg for it, I'll make you all messy♥</t>
+  </si>
+  <si>
     <t>リリス誘惑</t>
   </si>
   <si>
+    <t>Lily Temptation</t>
+  </si>
+  <si>
     <t>リリス</t>
+  </si>
+  <si>
+    <t>Lily</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ボクのおっぱいが一番好きだよネ♥
@@ -133,6 +159,17 @@
 あははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]}I love my tits the best.
+Hola... you're gonna have to give up now.
+Ha-ha-ha-ha♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;My tits are the best♥
+Come on♥ Just give up already♥
+Ahhahaha♥
+</t>
+  </si>
+  <si>
     <t>&lt;enemy:115&gt;&lt;CG不透明度:1,255&gt;&lt;CG不透明度:2,100&gt;</t>
   </si>
   <si>
@@ -141,36 +178,80 @@
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Here we go♥
+You know what to do if you want me to 
+touch your dick, right?
+Giggle♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There you go♥
+If you want me to touch your dick, then you 
+know what to do, right?
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ボクが一番好きデショ？
 ちゅーして♥ちゅー♥
 おっぱいも触っていいヨ♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Am I your favorite?
+Kiss me♥ Kiss me♥ Kiss me♥
+You can touch my tits, too♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;頑張っておちんちん扱いてるところ私に見せて♥
 ほら一緒に♪
 いっちに♥いっちに♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Show me how hard you can work that cock♥
+Come on! Come on♪
+Let's do it together♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;私の目を見て♥
 見つめ合いながらちゅーするの♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Look into my eyes♥
+We'll gaze at each other while we make out♥</t>
+  </si>
+  <si>
     <t>痺れ罠</t>
   </si>
   <si>
+    <t>Snare Trap</t>
+  </si>
+  <si>
     <t>\&gt;\C[26]罠を回避した！</t>
+  </si>
+  <si>
+    <t>\&gt;\C[26]Evaded the trap!</t>
   </si>
   <si>
     <t>\&gt;\C[14]痺れ罠だ！\C[0]
 \&gt;50歩の間攻撃を封じられてしまった！</t>
   </si>
   <si>
+    <t>\&gt;\C[14]Numbing Trap!\C[0]
+\&gt;The effect was blocked for 50 steps！</t>
+  </si>
+  <si>
     <t>夢喰い</t>
   </si>
   <si>
+    <t>Dream Eating</t>
+  </si>
+  <si>
     <t>ナイトベア</t>
   </si>
   <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
     <t xml:space="preserve"> &lt;enemy:109&gt;</t>
   </si>
   <si>
@@ -190,6 +271,9 @@
   </si>
   <si>
     <t>誘惑イベテンプレート</t>
+  </si>
+  <si>
+    <t>Template for Temptation Event</t>
   </si>
   <si>
     <t>暗闇の中でナースが手招きしている・・・</t>
@@ -357,22 +441,54 @@
 ほぉら♥こんなことされても抵抗できない♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're so numb you can't move.
+Re-roo ♥
+See, I can't resist when you do this to me.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're so numb you can't even move.
+You can't resist when I do this to you♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;戦いの最中にこんなに勃起させちゃって。
 敵の女に顔舐められて興奮してるの？
 あはははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I got such an erection in the middle of a fight.
+Are you getting off on having your face licked by an enemy woman?
+Hahahaha ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're all hard in the middle of a fight.
+Are you getting off on having your face licked by your enemy?
+Hahahaha♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ん？ひょっとして出ちゃった？
 まさかそんなわけないよね？
 触ってもいないのに♥くくく♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hmm? Did it go out by any chance?
+You don't think that's possible, do you?
+I didn't even touch it.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh? You didn't cum did you?
+That can't have happened, right?
+I didn't even touch it♥</t>
+  </si>
+  <si>
     <t>58スラミー</t>
   </si>
   <si>
     <t>スラミーガール</t>
   </si>
   <si>
+    <t>Slime Girl</t>
+  </si>
+  <si>
     <t>立体起動</t>
   </si>
   <si>
@@ -380,6 +496,9 @@
   </si>
   <si>
     <t>リリーチェイス</t>
+  </si>
+  <si>
+    <t>Lily Chase</t>
   </si>
   <si>
     <t>リリー</t>
@@ -390,113 +509,239 @@
 それが精奴隷の仕事でしょ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Come on, come on♥
+You came to offer your cum to me.
+That's what cum slaves do, right? Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;私のお尻、どう？
 ふりふり♥
 ここに精液いっぱいかけたいと思わない？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;How do you like my ass?
+Shake♥Shake♥
+Don't you want to cum all over it?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もう捕まえなくても・・・ほら♥
 こうやってお尻ふりふりするだけで・・・
 あはっ♥逃げられないわよねぇ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]}You don't have to catch me anymore... look.
+Just wiggle your butt like this...
+Haha, you can't run away from me, can you?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;こっち見てぇ♥あはぁ～ん♥
 ほぉら♥私のお尻に食べられにおいでぇ♥
 あはははは♥</t>
   </si>
   <si>
+    <t>Look at me, look at me, look at me.
+Oh, look at you, getting eaten by my ass.
+Ha-ha-ha-ha♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Hey, look♥ Look♥
+You're getting eaten up by my ass♥
+Ahahaha♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;なぁに？
 お尻見てるだけでぴゅっぴゅしちゃいそうなの？
 あらあら♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Whaat?
+Are you getting all excited just by looking at my ass?
+Oh, my♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ふふ♥
 すっかり出来上がっちゃったわね。
 精奴隷さん♥</t>
   </si>
   <si>
+    <t>Fufufu♥
+It's all over, isn't it?
+My little cum slave♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅっ♥ちゅぅぅ♥
 キスしてあげる♥
 むちゅぅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Mwah♥Mwah♥Mwah♥
+I'll kiss you all over♥
+Smoooch♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;押し倒してキスされるとぉ、
 もう逃げる気なんてなくなっちゃうわよねー♥
 最初から無いのかもだけど♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;When I push you down and kiss you,
+you don't try to escape at all♥
+Maybe you never wanted to♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;早く逃げないといっぱいちゅーしちゃうわよ♥
 されたいの？
 ちゅっ♥ちゅぅぅ♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;If you don't escape soon, I'll cover you in kisses.
+Is that what you want?
+Mwah♥Mmwah♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんたみたいな雑魚、キスだけで十分よね♥
 ちゅぅ♥ちゅっ♥ちゅっ♥ちゅぅぅう♥
 ほーらこれだけでもう逃げられない♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Kisses are enough for a little shrimp like you♥
+Mwah♥Smooch♥Mwah♥
+You can't get away from me now♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イク？ねぇ。キスだけでイっちゃう？
 くちびる押し付けられて精液漏らしちゃうの？
 むちゅぅぅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ew. Hey, did you cum just from my kisses?
+Did you squirt yourself with my lips pressed against you?
+Smoooch♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ぷ♥くくく♥
 まじでイった♥
 やばすぎ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squirt♥Clench, Clench♥
+You're really cumming♥
+It's so much♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
 ここに挟まれたらあとはもう射精するしかないの。
 抵抗しないで♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Aha♥Caught you♥
+Once I've got you, all you can do is cum.
+Just let it happen♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;太ももに挟んじゃった・・・♥
 ねぇ♥逃げるのやめて射精しよ？
 ほら、私のこと抱きしめて♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I caught it between my thighs♥
+Hey now♥ Wouldn't you rather cum than run away?
+Here, hang onto me♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
 ムチムチであったかくて逃げたくなくなるでしょー？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;They're so warm and strong,
+that you don't even want to escape, right?
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ねーぇ♥
 私の太ももで搾られたくなぁい？くすくす♥
 逃げないでー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Come on♥
+Don't you want to be squeezed by my thighs? Heehee♥
+Don't you run from me♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あん♥びくって膨らんだ♥
 もう出そうなのね？
 出しなさい♥ほら♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;It's getting so big♥
+You're about to blow, aren't you?
+Come on♥ Let it all out♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ♥
 振りほどこうとすれば振りほどけたのに。
 誘惑に負けちゃったわね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah ♥
+I could have shaken it off if I tried.
+I'm so tempted ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aha♥
+You could've gotten away if you tried.
+You're so enthralled♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
 足コキしてあげる♥
 あんた踏まれるの好きでしょ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Aha♥I got you♥
+I'll get you off with a footjob♥
+You like being stepped on, don't you?♥ Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やん♥もうこんなにビンビン♥
 足の裏でもカチカチなの分かる♥
 あははは♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;You're already so close♥ 
+I can feel it twitching against the sole of my foot♥ 
+Ahahaha♥ </t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;早く振りほどかないと
 足なんかで射精しちゃうわよー？
 そんな情けないイキ方していいのー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;If you don't get away soon
+you're gonna cum all over my foot.
+Is it really okay to cum in such a pathetic way?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
 ねぇ。ねぇねぇ♥
 どーなの？ほら♥ほらどーなのよ♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;You got caught on purpose. 
+Come on. Come on, come on♥ 
+How is it? Come on♥ </t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんな辛そうな声出しちゃって。
 まさかもう射精するんじゃないでしょうね。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You sound so pathetic.
+Don't tell me you're gonna cum already.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ウソ。こいつ弱すぎ。
@@ -504,24 +749,54 @@
 だっさ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Really. You're just too weak.
+Aww, a little footjob and it's game over.
+What a waste of time.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;く・・・う・・・
 ゆ、油断したわ。
 あんたがこんなに力を取り戻しているなんて。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ku...u...
+Yu, I was caught off guard.
+I can't believe you've regained so much power.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ugh...huh...
+You caught me off guard.
+I can't believe you've gotten so strong.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちっ・・・
 覚えてなさい。
 絶対に許さないから・・・！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Tch...
+Remember.
+I'll never forgive you...!"</t>
+  </si>
+  <si>
     <t>リリーの部屋は2階の左手側だったはず。
 しっかり準備してから挑もう。</t>
   </si>
   <si>
+    <t>Lily's room should be upstairs on the left hand side.
+Let's get prepared before we go there.</t>
+  </si>
+  <si>
     <t>ポップアップ有効化</t>
   </si>
   <si>
+    <t>Enable pop ups</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;どこ行こうとしてるにゃん？
@@ -529,13 +804,27 @@
 ほら、舐めろにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where are you running off to?
+You were looking for me anyway, right?
+C'mon, lick it.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんなに発情した顔してどうしたにゃ？
 アタシに会いたかったんにゃぁ？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;What's with that expression?
+You look like a cat in heat. Did you miss me?
+Hehe♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシの足舐めてるだけで勃起止まらんにゃ。
 ほんとマゾだし。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You can't help but get hard just from licking my feet.
+You're a total masochist.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;おらおら！
@@ -543,8 +832,17 @@
 顔踏まれて興奮するマゾ奴隷♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;C'mon!
+You wanted me to do this, right?
+A masochistic slave who gets off from having thier face stepped on♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はぁ～？
 これだけでチンポ爆発しそうにゃん。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ohh~?
+I think you're gonna pop off just from this.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;にゃはは♥
@@ -552,33 +850,67 @@
 もっとご褒美あげるにゃ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Nyahaha♥
+You're turning into quite the cum slave.
+How about a little reward♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシのことイカせられたら逃げられるにゃー？
 ほーらちゃんと舐めるにゃん。
 にゃははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;If I get you off, can you still get away?
+Here, I'll give you a proper lick.
+Nyahahaha♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシの匂いで頭バカにするにゃ。
 あ、元々バカだったし。
 にゃははは！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;My scent is making your face look stupid.
+Oh wait, you always looked like that.
+Nyahaha!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;チンポびんびんで苦しそうにゃん。
 ほーら、アタシをおかずにオナニーしていいにゃ。
 もう諦めてチンポ気持ちよくしてやればー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Your cock looks so full that it's painful.
+Here, we can masturbate together.
+Why don't you just give in and let yourself feel good?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
 そんなにアタシに犯されたかったにゃ？
 気持ちわりーにゃぁ。</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;You didn't get caught on purpose, did you?
+Did you want me to rape you that badly?
+You're making me feel bad. </t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;これだけで射精しそうになってるし。
 アタシ出していいって言ってないにゃー。
 出すなよ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're gonna cum already.
+I didn't say you were allowed to cum.
+Don't cum yet, got it?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーあ。
 勝手にお漏らしするバカチンポはおしおきにゃん。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah.
+A stupid cock that leaks without permission deserves punishment.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;いただきにゃ～ん♥
@@ -586,23 +918,47 @@
 じゅるるるるるるるるる♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Thanks for the meal~Nya♥
+Rub, rub, rub, rub♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;じゅるるるる♥
 気持ちよくて動けないにゃぁ？
 そのままじっとしてろにゃ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Sluuurp♥
+It feels so good you can't move, huh?
+Then just stay still, darling♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほら出せ♥
 れろれろれろぉ♥
 ぜーんぶ飲み干してやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;C'mon, squirt it out♥
+Ohhh yes♥
+I'm gonna drink it alllll up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシに食べられたくて待ってたにゃ？
 にゃは♥
 その顔見れば分かるし♥じゅる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Were you waiting for me to eat you up?
+Nyaha♥
+I can see it on your face♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;お前の精子アタシのお腹で溶かして殺してやるにゃ。
 じゅるるるる♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm gonna dissolve your sperm in my belly, and then get rid of you.
+Sluuuurp♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ごくごく・・・じゅるり♥
@@ -610,18 +966,37 @@
 飲み干してやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Droool...Slurp♥
+Nyahaha! You lose!
+I'll drink it all up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたにゃ！
 にゃははは♥
 ソッコー搾り取ってやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Gotcha!
+Nyahaha!
+I'm gonna squeeze it all out of you♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちんこビンビンにしてどこ行くにゃぁ？
 ほら、アタシの手とセックスしてくにゃ♥
 ほらほらほらァー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where are you pointing that thing?
+C'mon, you're gonna fuck my hand♥
+There you go, there you go♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ここ掴まれたらもう終わりにゃぁ？
 人間ってバカだもんにゃぁ。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If I grab you here, you're done for, right?
+Humans are so pathetic.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
@@ -629,34 +1004,69 @@
 素直になっていいにゃぁ～？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Did you get caught on purpose?
+Aw, come on.
+Can't you be honest with me?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ♥もうダメにゃぁ♥
 イクイクイクーって震えてるし♥
 負けろ負けろー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Aha♥ You can't take it anymore.
+You're shaking so much♥
+Give up give up give up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゃっは♥もうイったにゃ♥
 ハンターの癖にソーローにゃぁ。
 床が汚れたにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Nyahaha♥♥
+(unknown)
+You made the floor all dirty.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・
 イ、イってないし・・・！
 アホ！死ね！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ha...ha...
+I...I'm not coming...!
+Idiot! Die!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;今のはほんのお遊びだし！
 あとでアタシの部屋に来い！
 ぶっ殺してやるにゃ！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;That was just practice!
+Come by my room later!
+I'm gonna kill you!</t>
+  </si>
+  <si>
     <t>シィナの部屋は2階の右手側だったはず。
 しっかり準備してから挑もう。</t>
   </si>
   <si>
+    <t>Sina's room should be on the right side of the second floor.
+Let's get prepared before we go there.</t>
+  </si>
+  <si>
     <t>ライムチェイス</t>
   </si>
   <si>
+    <t>Lime Chase</t>
+  </si>
+  <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;はい♥
@@ -664,17 +1074,36 @@
 上手に腰動かせるかなー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;There♥
+I'll squeeze and you just move on your own, okay?
+Can you thrust your hips pretty well-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わー♥なになにー？
 自分からおっぱいに擦り付けちゃうのー？
 あはははー♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Wow♥What's this?
+You're gonna rub yourself against my tits?
+Ahahaha♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わぁ♥今日は積極的だねー♥
 私のこと押し倒しておっぱい使っちゃうなんてー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Well♥ You're very aggressive today♥
+I can't believe you pushed me down to use my tits♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 ほーらおっぱいに負けないようにがんばれがんばれー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squish, Squish♥
+Hey, try your best not to lose to my boobs♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ん？出るの？
@@ -682,23 +1111,47 @@
 早いよー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hmm? 
+Are you going to squirt already?
+It was so fast.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もー。
 まだ終わっちゃダメだよ？
 もっとパイズリしよ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Don't finish just yet, okay?
+Let's do some more paizuri♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;うりうりうりぃー♥
 にゅるにゅる足コキでイっちゃえー♥
 あはははー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squish, Squish♥
+Come from my footjob♥
+Squish, squish♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;\n[1]って足でされると喜んじゃうんだよねー？
 それってマゾって言うんだよー♥
 知ってたー？</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;You like doing it with my feet, right?
+That's called being a masochist♥
+Did you know that?
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;足でいっぱい負けさせてあげるからねー♥
 そのまま横になって踏まれててねー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm going to make you give up with my feet♥
+Just lie there and get stepped on♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;スライム足コキを食らえー♥
@@ -706,48 +1159,99 @@
 どーだ！どーだ！悪いハンターさんめー！</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Savor my slime footjob♥
+Squish, squish♥
+Come on! My bad little hunter♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あ！ひょっとしてイキそーになってるー？
 うわー♥
 こんなので射精しちゃうのー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah! Are you going to cum?
+Wow!
+Are you going to cum from this?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;うわ・・・♥
 足でイカせるとなんかぞくぞくするー・・・♥
 なるほどー♥なるほどー♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Wow♥
+I feel a little weird when making them cum with my feet♥
+I see♥I see♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたー♥
 むぎゅぅぅー♥
 ぎゅっ♥ぎゅっ♥ぎゅーっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I got you♥
+Squuuish♥
+Squeeze♥Squish♥Squeeze♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;\n[1]みっけー♥
 捕まえたよー♥ぎゅぅぅー♥
 もう逃げられないからねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;There you are♥
+I've got you♥
+You can't escape me now♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
 むにゅぅ～～～ん♥
 あはは♥息できないでしょー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Drown in my boobs♥
+Grope♥
+Ahaha, you can't breath♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
 暴れちゃだめー♥むにゅぅー♥
 おっぱいあげるから大人しくしてー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hey, don't run off♥
+Don't struggle♥
+I'll give you my tits, so just stay quiet♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
 苦しいのかなー？
 ねーねー♥くるしー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;What did you say?
+Is it hurting you?
+Hey♥Hey♥ Does it hurt?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
 苦しいんじゃなくて嬉しいだったんだねー♥
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah♥ Is the baby sleeping?
+I'm glad I'm not hurting you.
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;よいしょ♥
 えへへ♥じっとしててねー？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah, good.
+Heehee♥stay still, okay?</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;わー♥かったーい♥
@@ -755,18 +1259,38 @@
 もう出しちゃおうよー♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Wow♥
+Won't a boner like that would make it hard to get away?
+Let's take care of that, then♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
 おっぱいで負けさせてあげるからー♥
 ねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;That's enough running away, alright?
+I'll make you give in with my tits♥
+So go ahead♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 硬いのと柔らかいの、どっちが強いかなー？
 えいっ♥えいっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squish, squish, squish♥
+Which will win, the hard or the soft?
+Hmph♥Hmph♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あ！出そうな時の顔してるー♥
 ちょうだいちょうだーい♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah! It looks like you're ready♥
+Give it to me, give it to me♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;やったー♥
@@ -774,25 +1298,52 @@
 じゃぁいっぱい食べちゃおー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I did it♥
+I got you♥ I'm so happy♥
+Now I'll eat it allll up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あうぅ・・・き、気持ちよかった・・・
 だ、ダメだ・・・
 ダメだー。</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Ahhhh...that felt amazing...
+No, this isn't good...
+No...
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;次は負けないからー！
 部屋で待ってるよー！
 ぜーったいぐちょぐちょにしてあげるー！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Next time I won't lose!
+I'll be waiting for you in my room!
+I'll turn you into a sopping mess!</t>
+  </si>
+  <si>
     <t>ライムの部屋は1階のお風呂場だったはず。
 しっかり準備してから挑もう。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Lime's room should be the bathroom on the first floor.
+Let's get prepared before we go there.</t>
+  </si>
+  <si>
     <t>トラップライム</t>
+  </si>
+  <si>
+    <t>Trap Lime</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;水たまりだと思ったー？
 私だよー♥じゅるるるー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you think it was just a puddle?
+It's me♥ Schlurrp♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;お風呂覗いちゃうぐらい
@@ -800,37 +1351,73 @@
 言ってくれればいいのにー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You were so horny that
+you just had to look into the bath?
+You should have told me♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるにゅるー♥
 みんなー♥早くこっちきてー♥
 捕まえたよー♪</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squish♥Squish♥
+Hey everyone♥ Hurry up and come here♥
+I caught them♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;足元に注意ー♪
 お風呂では走ったりしちゃいけないんだよー？
 にゅるるるー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Watch your step!
+You shouldn't run in the bath, okay?
+Squish♥ Squish♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イっちゃえイっちゃえー♥
 覗きはびゅるびゅるさせちゃうぞー♥
 れろぉ♥じゅる♥れろれろー♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;I'm gonna make you cum, gonna make you cum♥
+I'm gonna make that dick cum♥
+Lick♥Slurp♥Lick, Lick♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わーい♥私の勝ちー♥
 リリー♪シィナ♪
 私の勝ちだよー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Wow ♥ I won!♥
+Lily... ♪ Sina... ♪
+I win!♥</t>
+  </si>
+  <si>
     <t>幻覚トラップ</t>
   </si>
   <si>
+    <t>Hallucination trap</t>
+  </si>
+  <si>
     <t>淫紋トラップ</t>
   </si>
   <si>
     <t>アーコイベ</t>
+  </si>
+  <si>
+    <t>Arco</t>
   </si>
   <si>
     <t>うぉ・・・！
 凄く高級そうなものが入っていた！</t>
+  </si>
+  <si>
+    <t>Wow...!
+Everything looked so expensive in there!</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あー！ずるい！
@@ -838,21 +1425,44 @@
 ちょっと目を離した隙にぃ・・・</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Ah! Hey that's not fair!
+I saw it first.
+I only looked away for a moment...  </t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;先に拾った方が勝ち・・・？
 うーん。そうかも。
 でも納得いかない。</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;Arco&gt;Whoever grabs it first gets to keep it?
+Hmmm. Maybe so.
+But I'm not convinced.
+</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あ、いいこと考えた。
 にしし。</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;Arco&gt;Oh, good idea.
+</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;こっちきて。
 それ渡したくなることしたげる。</t>
   </si>
   <si>
+    <t>\n&lt;Arco&gt;Come here. 
+I'll do something that will make you want to hand it over.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅぅぅー♥
 ちゅっ♥ちゅっ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mwaah♥
+Mwah♥Mwah♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;どーかな？
@@ -860,122 +1470,245 @@
 ねーねー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;What do you think?
+You wanna give it to me?
+Hey, hey.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おねがーい♥
 ちょーだい♥
 ちゅー♥ちゅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Pleeeaaase?♥
+Please♥
+Mwah♥Mwah♥Mwah♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おちんちん触りたくなってきたでしょ。
 自分でしてもいいよ。
 でもオナニーしたらそれあたしのね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You must be dying to touch yourself.
+You can go ahead and do it.
+But if you do, that thing is mine.♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅーしながらぴゅっぴゅするの
 絶対気持ちいいと思うんだけどなー。
 出すとこ近くで見ててあげるよー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Mwah♥ I'll do it while you're doing it too.
+I'm pretty sure that will make it feel even better.
+I'll watch you while you do it, okay?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちょうだーい♥
 そんなものより気持ちいいことしよーよー。
 意地はんないでさー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Gimme♥
+Let's do something that feels even better.
+Don't be so stubborn.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはは♥うんうん♥いーよ♪
 じゃそれあたしのね♥
 もーらい♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt;Aha ♥ Yeah ♥ Yeah ♪
+Then that's for me ♥
+Lemme have it ♥ </t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーだめ。
 これ以上ちゅーしてたらあたしがバカになる。
 おーわり！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah, no.
+If you keep sqeezing me, I'm gonna turn stupid.
+Oh no!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;強情だなぁ。
 もういいや。
 いらない。諦める。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ugh, you're stubborn.
+I don't want it anymore.
+I don't want it. I give.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;でももっかいちゅーしたくなったら
 いつでも言ってね。
 それ貰うけど。ばいばーい！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;But if you change your mind-
+just let me know anytime.
+I'll come get it. Byebye!</t>
+  </si>
+  <si>
     <t>アニメ回想</t>
+  </si>
+  <si>
+    <t>Reminiscence Room</t>
   </si>
   <si>
     <t>アニメビューアは使用できません。
 ※ノーマルエンド後に解放条件が表示されます。</t>
   </si>
   <si>
+    <t>Animation is not available.
+*Unlock conditions will be displayed after a normal ending</t>
+  </si>
+  <si>
     <t>アニメビューアは使用できません。
 ※リリスのLVを99にしてEXバトルに勝利すると解禁されます。</t>
   </si>
   <si>
+    <t>Animation is not available.
+*Unlocked when Lilith reaches lvl 99 and wins an EX battle.</t>
+  </si>
+  <si>
     <t>アニメビューアを使用しますか？
 ※作中のアニメを自由に見ることが出来ます。</t>
   </si>
   <si>
+    <t>Do you want to use the animation viewer?
+*You can freely view the animations from the game.</t>
+  </si>
+  <si>
     <t>使用する</t>
   </si>
   <si>
+    <t>Use</t>
+  </si>
+  <si>
     <t>やめておく</t>
   </si>
   <si>
+    <t>Do not use</t>
+  </si>
+  <si>
     <t>\&gt;キャラクターIDを選んでください　0～63</t>
   </si>
   <si>
+    <t>\&gt;Please select a character ID 0~63</t>
+  </si>
+  <si>
     <t>キャラID</t>
   </si>
   <si>
+    <t>character ID</t>
+  </si>
+  <si>
     <t>アニメを見る</t>
   </si>
   <si>
+    <t>Watch Animation</t>
+  </si>
+  <si>
     <t>効果音</t>
   </si>
   <si>
+    <t>Sound Effects</t>
+  </si>
+  <si>
     <t>待機モーション</t>
   </si>
   <si>
+    <t>Standby Animation</t>
+  </si>
+  <si>
     <t>解説を読む</t>
   </si>
   <si>
+    <t>Read the description</t>
+  </si>
+  <si>
     <t>やめる</t>
   </si>
   <si>
+    <t>Quit</t>
+  </si>
+  <si>
     <t>終わる</t>
   </si>
   <si>
+    <t>Close Game</t>
+  </si>
+  <si>
     <t>操作説明を表示する</t>
   </si>
   <si>
+    <t>Display operating instructions</t>
+  </si>
+  <si>
     <t>操作説明を隠す</t>
   </si>
   <si>
+    <t>Hide operating instructions</t>
+  </si>
+  <si>
     <t>手コキ系</t>
   </si>
   <si>
+    <t>Handjob</t>
+  </si>
+  <si>
     <t>フェラ系</t>
   </si>
   <si>
+    <t>Blowjob</t>
+  </si>
+  <si>
     <t>パイズリ系</t>
   </si>
   <si>
+    <t>Paizuri</t>
+  </si>
+  <si>
     <t>ピストン系</t>
   </si>
   <si>
+    <t>Mounting</t>
+  </si>
+  <si>
     <t>射精音</t>
   </si>
   <si>
+    <t>Ejaculation Sound</t>
+  </si>
+  <si>
     <t>無し</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>強気</t>
   </si>
   <si>
+    <t>Dominant</t>
+  </si>
+  <si>
     <t>弱気</t>
   </si>
   <si>
+    <t>Weakened</t>
+  </si>
+  <si>
     <t>絶頂</t>
+  </si>
+  <si>
+    <t>Climax</t>
   </si>
   <si>
     <t>まずキャラクターIDを選択して見たいキャラを決定します。
@@ -983,14 +1716,29 @@
 待機モーションが3種類（強気、弱気、絶頂）あります。</t>
   </si>
   <si>
+    <t>First select a character ID to determine which character you want to see.
+Each ID has 4 x 3 types of attack motions (strong, weak, ejaculate) and
+3 types of waiting motions (strong, weak, climax).</t>
+  </si>
+  <si>
     <t>『アニメを見る』を選択するとウィンドウが非表示になり
 方向キーを押すだけで表情や再生速度、射精アニメを
 自由に変更できます。</t>
   </si>
   <si>
-    <t>上キー：射精アニメ切替　下キー：表情切替
+    <t>Select 'Watch Animation' to hide the window and
+facial expressions, playback speed, and ejaculation animation by simply pressing the directional keys.
+You can change them at will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上キー：射精アニメ切替　下キー：表情切替
 右キー：再生速度変更　　左キー：モーション変更
 SHIFT ：キャラID変更　　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up key: Toggle ejaculation animation    Down key: Toggle facial expression
+Right key: Change playback speed     Left key: Change motion
+SHIFT : Change character ID </t>
   </si>
   <si>
     <t>PageUP  ：キャラクターID +1
@@ -998,34 +1746,79 @@
 キャンセルキー：終了/操作説明の非表示</t>
   </si>
   <si>
+    <t>PageUP : Character ID +1
+PageDown : Character ID -1
+Cancel key: Exit/Hide operation instructions</t>
+  </si>
+  <si>
     <t>『効果音』の選択肢から音を変更することが出来ます。
 音は再生速度によって速さが自動で変更されます。</t>
+  </si>
+  <si>
+    <t>You can change the sound from the "Sound Effects" option.
+The sound will automatically change speed depending on the playback speed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1033,36 +1826,68 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -1086,79 +1911,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,1474 +1935,4292 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="61.57"/>
+    <col customWidth="1" min="2" max="2" width="5.71"/>
+    <col customWidth="1" min="3" max="3" width="41.57"/>
+    <col customWidth="1" min="4" max="4" width="67.43"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="D37" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="C39" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="D40" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="D42" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="D44" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="D45" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="C46" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="C47" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="C54" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="C108" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="D108" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="C109" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="D109" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="C110" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="D110" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="C112" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="C115" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="C116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="D117" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="D118" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="C119" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="C120" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="D120" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="D121" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="D122" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="D123" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="D124" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="D125" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="D126" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="D127" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="D128" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="D129" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="D130" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="D131" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="D132" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="D133" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="C134" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="D134" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="D135" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="D136" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="D137" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="D138" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="D139" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="D140" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="C141" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="D141" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="D142" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="D143" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="C144" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="D145" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="D146" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="D147" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="D148" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="D149" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="D150" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="D151" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="D152" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="D153" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="D154" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="D155" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="D156" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="D157" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="D158" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="D159" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="D160" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="D161" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="D162" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="D163" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="D164" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="D165" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="D166" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+      <c r="D167" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="D168" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="D169" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="D170" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="D171" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="A178" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="8"/>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="A221" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" customHeight="1">
+      <c r="A223" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" customHeight="1">
+      <c r="A225" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" customHeight="1">
+      <c r="A226" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25" customHeight="1">
+      <c r="A228" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25" customHeight="1">
+      <c r="A229" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" customHeight="1">
+      <c r="A230" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" customHeight="1">
+      <c r="A231" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" customHeight="1">
+      <c r="A232" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" customHeight="1">
+      <c r="A233" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" customHeight="1">
+      <c r="A234" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" customHeight="1">
+      <c r="A235" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" customHeight="1">
+      <c r="A236" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" customHeight="1">
+      <c r="A237" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" customHeight="1">
+      <c r="A238" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" customHeight="1">
+      <c r="A240" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" customHeight="1">
+      <c r="A241" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25" customHeight="1">
+      <c r="A243" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25" customHeight="1">
+      <c r="A244" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25" customHeight="1">
+      <c r="A245" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25" customHeight="1">
+      <c r="A246" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25" customHeight="1">
+      <c r="A247" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25" customHeight="1">
+      <c r="A248" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="A249" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25" customHeight="1">
+      <c r="A250" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25" customHeight="1">
+      <c r="A251" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25" customHeight="1">
+      <c r="A252" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25" customHeight="1">
+      <c r="A253" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25" customHeight="1">
+      <c r="A254" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25" customHeight="1">
+      <c r="A255" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25" customHeight="1">
+      <c r="A256" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25" customHeight="1">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" ht="14.25" customHeight="1">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" ht="14.25" customHeight="1">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" ht="14.25" customHeight="1">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" ht="14.25" customHeight="1">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" ht="14.25" customHeight="1">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" ht="14.25" customHeight="1">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" ht="14.25" customHeight="1">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" ht="14.25" customHeight="1">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" ht="14.25" customHeight="1">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" ht="14.25" customHeight="1">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" ht="14.25" customHeight="1">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" ht="14.25" customHeight="1">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" ht="14.25" customHeight="1">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" ht="14.25" customHeight="1">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" ht="14.25" customHeight="1">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" ht="14.25" customHeight="1">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" ht="14.25" customHeight="1">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" ht="14.25" customHeight="1">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" ht="14.25" customHeight="1">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" ht="14.25" customHeight="1">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" ht="14.25" customHeight="1">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" ht="14.25" customHeight="1">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" ht="14.25" customHeight="1">
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" ht="14.25" customHeight="1">
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" ht="14.25" customHeight="1">
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" ht="14.25" customHeight="1">
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" ht="14.25" customHeight="1">
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" ht="14.25" customHeight="1">
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" ht="14.25" customHeight="1">
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" ht="14.25" customHeight="1">
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" ht="14.25" customHeight="1">
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" ht="14.25" customHeight="1">
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" ht="14.25" customHeight="1">
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" ht="14.25" customHeight="1">
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" ht="14.25" customHeight="1">
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" ht="14.25" customHeight="1">
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" ht="14.25" customHeight="1">
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" ht="14.25" customHeight="1">
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" ht="14.25" customHeight="1">
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" ht="14.25" customHeight="1">
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" ht="14.25" customHeight="1">
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" ht="14.25" customHeight="1">
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" ht="14.25" customHeight="1">
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" ht="14.25" customHeight="1">
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" ht="14.25" customHeight="1">
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" ht="14.25" customHeight="1">
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" ht="14.25" customHeight="1">
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" ht="14.25" customHeight="1">
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" ht="14.25" customHeight="1">
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" ht="14.25" customHeight="1">
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" ht="14.25" customHeight="1">
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" ht="14.25" customHeight="1">
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" ht="14.25" customHeight="1">
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" ht="14.25" customHeight="1">
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" ht="14.25" customHeight="1">
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" ht="14.25" customHeight="1">
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" ht="14.25" customHeight="1">
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" ht="14.25" customHeight="1">
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" ht="14.25" customHeight="1">
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" ht="14.25" customHeight="1">
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" ht="14.25" customHeight="1">
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" ht="14.25" customHeight="1">
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" ht="14.25" customHeight="1">
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" ht="14.25" customHeight="1">
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" ht="14.25" customHeight="1">
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" ht="14.25" customHeight="1">
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" ht="14.25" customHeight="1">
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" ht="14.25" customHeight="1">
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" ht="14.25" customHeight="1">
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" ht="14.25" customHeight="1">
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" ht="14.25" customHeight="1">
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" ht="14.25" customHeight="1">
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" ht="14.25" customHeight="1">
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" ht="14.25" customHeight="1">
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" ht="14.25" customHeight="1">
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" ht="14.25" customHeight="1">
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" ht="14.25" customHeight="1">
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" ht="14.25" customHeight="1">
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" ht="14.25" customHeight="1">
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" ht="14.25" customHeight="1">
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" ht="14.25" customHeight="1">
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" ht="14.25" customHeight="1">
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" ht="14.25" customHeight="1">
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" ht="14.25" customHeight="1">
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" ht="14.25" customHeight="1">
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" ht="14.25" customHeight="1">
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" ht="14.25" customHeight="1">
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" ht="14.25" customHeight="1">
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" ht="14.25" customHeight="1">
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" ht="14.25" customHeight="1">
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" ht="14.25" customHeight="1">
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" ht="14.25" customHeight="1">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" ht="14.25" customHeight="1">
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" ht="14.25" customHeight="1">
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" ht="14.25" customHeight="1">
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" ht="14.25" customHeight="1">
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" ht="14.25" customHeight="1">
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" ht="14.25" customHeight="1">
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" ht="14.25" customHeight="1">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" ht="14.25" customHeight="1">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" ht="14.25" customHeight="1">
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" ht="14.25" customHeight="1">
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" ht="14.25" customHeight="1">
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" ht="14.25" customHeight="1">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" ht="14.25" customHeight="1">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" ht="14.25" customHeight="1">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" ht="14.25" customHeight="1">
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" ht="14.25" customHeight="1">
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" ht="14.25" customHeight="1">
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" ht="14.25" customHeight="1">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" ht="14.25" customHeight="1">
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" ht="14.25" customHeight="1">
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" ht="14.25" customHeight="1">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" ht="14.25" customHeight="1">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" ht="14.25" customHeight="1">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" ht="14.25" customHeight="1">
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" ht="14.25" customHeight="1">
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" ht="14.25" customHeight="1">
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" ht="14.25" customHeight="1">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" ht="14.25" customHeight="1">
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" ht="14.25" customHeight="1">
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" ht="14.25" customHeight="1">
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" ht="14.25" customHeight="1">
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" ht="14.25" customHeight="1">
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" ht="14.25" customHeight="1">
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" ht="14.25" customHeight="1">
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" ht="14.25" customHeight="1">
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" ht="14.25" customHeight="1">
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" ht="14.25" customHeight="1">
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" ht="14.25" customHeight="1">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" ht="14.25" customHeight="1">
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" ht="14.25" customHeight="1">
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" ht="14.25" customHeight="1">
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" ht="14.25" customHeight="1">
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" ht="14.25" customHeight="1">
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" ht="14.25" customHeight="1">
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" ht="14.25" customHeight="1">
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" ht="14.25" customHeight="1">
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" ht="14.25" customHeight="1">
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" ht="14.25" customHeight="1">
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" ht="14.25" customHeight="1">
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" ht="14.25" customHeight="1">
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" ht="14.25" customHeight="1">
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" ht="14.25" customHeight="1">
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" ht="14.25" customHeight="1">
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" ht="14.25" customHeight="1">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" ht="14.25" customHeight="1">
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" ht="14.25" customHeight="1">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" ht="14.25" customHeight="1">
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" ht="14.25" customHeight="1">
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" ht="14.25" customHeight="1">
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" ht="14.25" customHeight="1">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" ht="14.25" customHeight="1">
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" ht="14.25" customHeight="1">
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" ht="14.25" customHeight="1">
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" ht="14.25" customHeight="1">
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" ht="14.25" customHeight="1">
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" ht="14.25" customHeight="1">
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" ht="14.25" customHeight="1">
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" ht="14.25" customHeight="1">
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" ht="14.25" customHeight="1">
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" ht="14.25" customHeight="1">
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" ht="14.25" customHeight="1">
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" ht="14.25" customHeight="1">
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" ht="14.25" customHeight="1">
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" ht="14.25" customHeight="1">
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" ht="14.25" customHeight="1">
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" ht="14.25" customHeight="1">
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" ht="14.25" customHeight="1">
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" ht="14.25" customHeight="1">
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" ht="14.25" customHeight="1">
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" ht="14.25" customHeight="1">
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" ht="14.25" customHeight="1">
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" ht="14.25" customHeight="1">
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" ht="14.25" customHeight="1">
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" ht="14.25" customHeight="1">
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" ht="14.25" customHeight="1">
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" ht="14.25" customHeight="1">
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" ht="14.25" customHeight="1">
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" ht="14.25" customHeight="1">
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" ht="14.25" customHeight="1">
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" ht="14.25" customHeight="1">
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" ht="14.25" customHeight="1">
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445" ht="14.25" customHeight="1">
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446" ht="14.25" customHeight="1">
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447" ht="14.25" customHeight="1">
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448" ht="14.25" customHeight="1">
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449" ht="14.25" customHeight="1">
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450" ht="14.25" customHeight="1">
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451" ht="14.25" customHeight="1">
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" ht="14.25" customHeight="1">
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" ht="14.25" customHeight="1">
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" ht="14.25" customHeight="1">
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" ht="14.25" customHeight="1">
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" ht="14.25" customHeight="1">
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457" ht="14.25" customHeight="1">
+      <c r="D457" s="2"/>
+    </row>
+    <row r="458" ht="14.25" customHeight="1">
+      <c r="D458" s="2"/>
+    </row>
+    <row r="459" ht="14.25" customHeight="1">
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460" ht="14.25" customHeight="1">
+      <c r="D460" s="2"/>
+    </row>
+    <row r="461" ht="14.25" customHeight="1">
+      <c r="D461" s="2"/>
+    </row>
+    <row r="462" ht="14.25" customHeight="1">
+      <c r="D462" s="2"/>
+    </row>
+    <row r="463" ht="14.25" customHeight="1">
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464" ht="14.25" customHeight="1">
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" ht="14.25" customHeight="1">
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466" ht="14.25" customHeight="1">
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" ht="14.25" customHeight="1">
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" ht="14.25" customHeight="1">
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469" ht="14.25" customHeight="1">
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" ht="14.25" customHeight="1">
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" ht="14.25" customHeight="1">
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" ht="14.25" customHeight="1">
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473" ht="14.25" customHeight="1">
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474" ht="14.25" customHeight="1">
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475" ht="14.25" customHeight="1">
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476" ht="14.25" customHeight="1">
+      <c r="D476" s="2"/>
+    </row>
+    <row r="477" ht="14.25" customHeight="1">
+      <c r="D477" s="2"/>
+    </row>
+    <row r="478" ht="14.25" customHeight="1">
+      <c r="D478" s="2"/>
+    </row>
+    <row r="479" ht="14.25" customHeight="1">
+      <c r="D479" s="2"/>
+    </row>
+    <row r="480" ht="14.25" customHeight="1">
+      <c r="D480" s="2"/>
+    </row>
+    <row r="481" ht="14.25" customHeight="1">
+      <c r="D481" s="2"/>
+    </row>
+    <row r="482" ht="14.25" customHeight="1">
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483" ht="14.25" customHeight="1">
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484" ht="14.25" customHeight="1">
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485" ht="14.25" customHeight="1">
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486" ht="14.25" customHeight="1">
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487" ht="14.25" customHeight="1">
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488" ht="14.25" customHeight="1">
+      <c r="D488" s="2"/>
+    </row>
+    <row r="489" ht="14.25" customHeight="1">
+      <c r="D489" s="2"/>
+    </row>
+    <row r="490" ht="14.25" customHeight="1">
+      <c r="D490" s="2"/>
+    </row>
+    <row r="491" ht="14.25" customHeight="1">
+      <c r="D491" s="2"/>
+    </row>
+    <row r="492" ht="14.25" customHeight="1">
+      <c r="D492" s="2"/>
+    </row>
+    <row r="493" ht="14.25" customHeight="1">
+      <c r="D493" s="2"/>
+    </row>
+    <row r="494" ht="14.25" customHeight="1">
+      <c r="D494" s="2"/>
+    </row>
+    <row r="495" ht="14.25" customHeight="1">
+      <c r="D495" s="2"/>
+    </row>
+    <row r="496" ht="14.25" customHeight="1">
+      <c r="D496" s="2"/>
+    </row>
+    <row r="497" ht="14.25" customHeight="1">
+      <c r="D497" s="2"/>
+    </row>
+    <row r="498" ht="14.25" customHeight="1">
+      <c r="D498" s="2"/>
+    </row>
+    <row r="499" ht="14.25" customHeight="1">
+      <c r="D499" s="2"/>
+    </row>
+    <row r="500" ht="14.25" customHeight="1">
+      <c r="D500" s="2"/>
+    </row>
+    <row r="501" ht="14.25" customHeight="1">
+      <c r="D501" s="2"/>
+    </row>
+    <row r="502" ht="14.25" customHeight="1">
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503" ht="14.25" customHeight="1">
+      <c r="D503" s="2"/>
+    </row>
+    <row r="504" ht="14.25" customHeight="1">
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505" ht="14.25" customHeight="1">
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506" ht="14.25" customHeight="1">
+      <c r="D506" s="2"/>
+    </row>
+    <row r="507" ht="14.25" customHeight="1">
+      <c r="D507" s="2"/>
+    </row>
+    <row r="508" ht="14.25" customHeight="1">
+      <c r="D508" s="2"/>
+    </row>
+    <row r="509" ht="14.25" customHeight="1">
+      <c r="D509" s="2"/>
+    </row>
+    <row r="510" ht="14.25" customHeight="1">
+      <c r="D510" s="2"/>
+    </row>
+    <row r="511" ht="14.25" customHeight="1">
+      <c r="D511" s="2"/>
+    </row>
+    <row r="512" ht="14.25" customHeight="1">
+      <c r="D512" s="2"/>
+    </row>
+    <row r="513" ht="14.25" customHeight="1">
+      <c r="D513" s="2"/>
+    </row>
+    <row r="514" ht="14.25" customHeight="1">
+      <c r="D514" s="2"/>
+    </row>
+    <row r="515" ht="14.25" customHeight="1">
+      <c r="D515" s="2"/>
+    </row>
+    <row r="516" ht="14.25" customHeight="1">
+      <c r="D516" s="2"/>
+    </row>
+    <row r="517" ht="14.25" customHeight="1">
+      <c r="D517" s="2"/>
+    </row>
+    <row r="518" ht="14.25" customHeight="1">
+      <c r="D518" s="2"/>
+    </row>
+    <row r="519" ht="14.25" customHeight="1">
+      <c r="D519" s="2"/>
+    </row>
+    <row r="520" ht="14.25" customHeight="1">
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521" ht="14.25" customHeight="1">
+      <c r="D521" s="2"/>
+    </row>
+    <row r="522" ht="14.25" customHeight="1">
+      <c r="D522" s="2"/>
+    </row>
+    <row r="523" ht="14.25" customHeight="1">
+      <c r="D523" s="2"/>
+    </row>
+    <row r="524" ht="14.25" customHeight="1">
+      <c r="D524" s="2"/>
+    </row>
+    <row r="525" ht="14.25" customHeight="1">
+      <c r="D525" s="2"/>
+    </row>
+    <row r="526" ht="14.25" customHeight="1">
+      <c r="D526" s="2"/>
+    </row>
+    <row r="527" ht="14.25" customHeight="1">
+      <c r="D527" s="2"/>
+    </row>
+    <row r="528" ht="14.25" customHeight="1">
+      <c r="D528" s="2"/>
+    </row>
+    <row r="529" ht="14.25" customHeight="1">
+      <c r="D529" s="2"/>
+    </row>
+    <row r="530" ht="14.25" customHeight="1">
+      <c r="D530" s="2"/>
+    </row>
+    <row r="531" ht="14.25" customHeight="1">
+      <c r="D531" s="2"/>
+    </row>
+    <row r="532" ht="14.25" customHeight="1">
+      <c r="D532" s="2"/>
+    </row>
+    <row r="533" ht="14.25" customHeight="1">
+      <c r="D533" s="2"/>
+    </row>
+    <row r="534" ht="14.25" customHeight="1">
+      <c r="D534" s="2"/>
+    </row>
+    <row r="535" ht="14.25" customHeight="1">
+      <c r="D535" s="2"/>
+    </row>
+    <row r="536" ht="14.25" customHeight="1">
+      <c r="D536" s="2"/>
+    </row>
+    <row r="537" ht="14.25" customHeight="1">
+      <c r="D537" s="2"/>
+    </row>
+    <row r="538" ht="14.25" customHeight="1">
+      <c r="D538" s="2"/>
+    </row>
+    <row r="539" ht="14.25" customHeight="1">
+      <c r="D539" s="2"/>
+    </row>
+    <row r="540" ht="14.25" customHeight="1">
+      <c r="D540" s="2"/>
+    </row>
+    <row r="541" ht="14.25" customHeight="1">
+      <c r="D541" s="2"/>
+    </row>
+    <row r="542" ht="14.25" customHeight="1">
+      <c r="D542" s="2"/>
+    </row>
+    <row r="543" ht="14.25" customHeight="1">
+      <c r="D543" s="2"/>
+    </row>
+    <row r="544" ht="14.25" customHeight="1">
+      <c r="D544" s="2"/>
+    </row>
+    <row r="545" ht="14.25" customHeight="1">
+      <c r="D545" s="2"/>
+    </row>
+    <row r="546" ht="14.25" customHeight="1">
+      <c r="D546" s="2"/>
+    </row>
+    <row r="547" ht="14.25" customHeight="1">
+      <c r="D547" s="2"/>
+    </row>
+    <row r="548" ht="14.25" customHeight="1">
+      <c r="D548" s="2"/>
+    </row>
+    <row r="549" ht="14.25" customHeight="1">
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550" ht="14.25" customHeight="1">
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551" ht="14.25" customHeight="1">
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" ht="14.25" customHeight="1">
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553" ht="14.25" customHeight="1">
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" ht="14.25" customHeight="1">
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555" ht="14.25" customHeight="1">
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556" ht="14.25" customHeight="1">
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557" ht="14.25" customHeight="1">
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558" ht="14.25" customHeight="1">
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559" ht="14.25" customHeight="1">
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560" ht="14.25" customHeight="1">
+      <c r="D560" s="2"/>
+    </row>
+    <row r="561" ht="14.25" customHeight="1">
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562" ht="14.25" customHeight="1">
+      <c r="D562" s="2"/>
+    </row>
+    <row r="563" ht="14.25" customHeight="1">
+      <c r="D563" s="2"/>
+    </row>
+    <row r="564" ht="14.25" customHeight="1">
+      <c r="D564" s="2"/>
+    </row>
+    <row r="565" ht="14.25" customHeight="1">
+      <c r="D565" s="2"/>
+    </row>
+    <row r="566" ht="14.25" customHeight="1">
+      <c r="D566" s="2"/>
+    </row>
+    <row r="567" ht="14.25" customHeight="1">
+      <c r="D567" s="2"/>
+    </row>
+    <row r="568" ht="14.25" customHeight="1">
+      <c r="D568" s="2"/>
+    </row>
+    <row r="569" ht="14.25" customHeight="1">
+      <c r="D569" s="2"/>
+    </row>
+    <row r="570" ht="14.25" customHeight="1">
+      <c r="D570" s="2"/>
+    </row>
+    <row r="571" ht="14.25" customHeight="1">
+      <c r="D571" s="2"/>
+    </row>
+    <row r="572" ht="14.25" customHeight="1">
+      <c r="D572" s="2"/>
+    </row>
+    <row r="573" ht="14.25" customHeight="1">
+      <c r="D573" s="2"/>
+    </row>
+    <row r="574" ht="14.25" customHeight="1">
+      <c r="D574" s="2"/>
+    </row>
+    <row r="575" ht="14.25" customHeight="1">
+      <c r="D575" s="2"/>
+    </row>
+    <row r="576" ht="14.25" customHeight="1">
+      <c r="D576" s="2"/>
+    </row>
+    <row r="577" ht="14.25" customHeight="1">
+      <c r="D577" s="2"/>
+    </row>
+    <row r="578" ht="14.25" customHeight="1">
+      <c r="D578" s="2"/>
+    </row>
+    <row r="579" ht="14.25" customHeight="1">
+      <c r="D579" s="2"/>
+    </row>
+    <row r="580" ht="14.25" customHeight="1">
+      <c r="D580" s="2"/>
+    </row>
+    <row r="581" ht="14.25" customHeight="1">
+      <c r="D581" s="2"/>
+    </row>
+    <row r="582" ht="14.25" customHeight="1">
+      <c r="D582" s="2"/>
+    </row>
+    <row r="583" ht="14.25" customHeight="1">
+      <c r="D583" s="2"/>
+    </row>
+    <row r="584" ht="14.25" customHeight="1">
+      <c r="D584" s="2"/>
+    </row>
+    <row r="585" ht="14.25" customHeight="1">
+      <c r="D585" s="2"/>
+    </row>
+    <row r="586" ht="14.25" customHeight="1">
+      <c r="D586" s="2"/>
+    </row>
+    <row r="587" ht="14.25" customHeight="1">
+      <c r="D587" s="2"/>
+    </row>
+    <row r="588" ht="14.25" customHeight="1">
+      <c r="D588" s="2"/>
+    </row>
+    <row r="589" ht="14.25" customHeight="1">
+      <c r="D589" s="2"/>
+    </row>
+    <row r="590" ht="14.25" customHeight="1">
+      <c r="D590" s="2"/>
+    </row>
+    <row r="591" ht="14.25" customHeight="1">
+      <c r="D591" s="2"/>
+    </row>
+    <row r="592" ht="14.25" customHeight="1">
+      <c r="D592" s="2"/>
+    </row>
+    <row r="593" ht="14.25" customHeight="1">
+      <c r="D593" s="2"/>
+    </row>
+    <row r="594" ht="14.25" customHeight="1">
+      <c r="D594" s="2"/>
+    </row>
+    <row r="595" ht="14.25" customHeight="1">
+      <c r="D595" s="2"/>
+    </row>
+    <row r="596" ht="14.25" customHeight="1">
+      <c r="D596" s="2"/>
+    </row>
+    <row r="597" ht="14.25" customHeight="1">
+      <c r="D597" s="2"/>
+    </row>
+    <row r="598" ht="14.25" customHeight="1">
+      <c r="D598" s="2"/>
+    </row>
+    <row r="599" ht="14.25" customHeight="1">
+      <c r="D599" s="2"/>
+    </row>
+    <row r="600" ht="14.25" customHeight="1">
+      <c r="D600" s="2"/>
+    </row>
+    <row r="601" ht="14.25" customHeight="1">
+      <c r="D601" s="2"/>
+    </row>
+    <row r="602" ht="14.25" customHeight="1">
+      <c r="D602" s="2"/>
+    </row>
+    <row r="603" ht="14.25" customHeight="1">
+      <c r="D603" s="2"/>
+    </row>
+    <row r="604" ht="14.25" customHeight="1">
+      <c r="D604" s="2"/>
+    </row>
+    <row r="605" ht="14.25" customHeight="1">
+      <c r="D605" s="2"/>
+    </row>
+    <row r="606" ht="14.25" customHeight="1">
+      <c r="D606" s="2"/>
+    </row>
+    <row r="607" ht="14.25" customHeight="1">
+      <c r="D607" s="2"/>
+    </row>
+    <row r="608" ht="14.25" customHeight="1">
+      <c r="D608" s="2"/>
+    </row>
+    <row r="609" ht="14.25" customHeight="1">
+      <c r="D609" s="2"/>
+    </row>
+    <row r="610" ht="14.25" customHeight="1">
+      <c r="D610" s="2"/>
+    </row>
+    <row r="611" ht="14.25" customHeight="1">
+      <c r="D611" s="2"/>
+    </row>
+    <row r="612" ht="14.25" customHeight="1">
+      <c r="D612" s="2"/>
+    </row>
+    <row r="613" ht="14.25" customHeight="1">
+      <c r="D613" s="2"/>
+    </row>
+    <row r="614" ht="14.25" customHeight="1">
+      <c r="D614" s="2"/>
+    </row>
+    <row r="615" ht="14.25" customHeight="1">
+      <c r="D615" s="2"/>
+    </row>
+    <row r="616" ht="14.25" customHeight="1">
+      <c r="D616" s="2"/>
+    </row>
+    <row r="617" ht="14.25" customHeight="1">
+      <c r="D617" s="2"/>
+    </row>
+    <row r="618" ht="14.25" customHeight="1">
+      <c r="D618" s="2"/>
+    </row>
+    <row r="619" ht="14.25" customHeight="1">
+      <c r="D619" s="2"/>
+    </row>
+    <row r="620" ht="14.25" customHeight="1">
+      <c r="D620" s="2"/>
+    </row>
+    <row r="621" ht="14.25" customHeight="1">
+      <c r="D621" s="2"/>
+    </row>
+    <row r="622" ht="14.25" customHeight="1">
+      <c r="D622" s="2"/>
+    </row>
+    <row r="623" ht="14.25" customHeight="1">
+      <c r="D623" s="2"/>
+    </row>
+    <row r="624" ht="14.25" customHeight="1">
+      <c r="D624" s="2"/>
+    </row>
+    <row r="625" ht="14.25" customHeight="1">
+      <c r="D625" s="2"/>
+    </row>
+    <row r="626" ht="14.25" customHeight="1">
+      <c r="D626" s="2"/>
+    </row>
+    <row r="627" ht="14.25" customHeight="1">
+      <c r="D627" s="2"/>
+    </row>
+    <row r="628" ht="14.25" customHeight="1">
+      <c r="D628" s="2"/>
+    </row>
+    <row r="629" ht="14.25" customHeight="1">
+      <c r="D629" s="2"/>
+    </row>
+    <row r="630" ht="14.25" customHeight="1">
+      <c r="D630" s="2"/>
+    </row>
+    <row r="631" ht="14.25" customHeight="1">
+      <c r="D631" s="2"/>
+    </row>
+    <row r="632" ht="14.25" customHeight="1">
+      <c r="D632" s="2"/>
+    </row>
+    <row r="633" ht="14.25" customHeight="1">
+      <c r="D633" s="2"/>
+    </row>
+    <row r="634" ht="14.25" customHeight="1">
+      <c r="D634" s="2"/>
+    </row>
+    <row r="635" ht="14.25" customHeight="1">
+      <c r="D635" s="2"/>
+    </row>
+    <row r="636" ht="14.25" customHeight="1">
+      <c r="D636" s="2"/>
+    </row>
+    <row r="637" ht="14.25" customHeight="1">
+      <c r="D637" s="2"/>
+    </row>
+    <row r="638" ht="14.25" customHeight="1">
+      <c r="D638" s="2"/>
+    </row>
+    <row r="639" ht="14.25" customHeight="1">
+      <c r="D639" s="2"/>
+    </row>
+    <row r="640" ht="14.25" customHeight="1">
+      <c r="D640" s="2"/>
+    </row>
+    <row r="641" ht="14.25" customHeight="1">
+      <c r="D641" s="2"/>
+    </row>
+    <row r="642" ht="14.25" customHeight="1">
+      <c r="D642" s="2"/>
+    </row>
+    <row r="643" ht="14.25" customHeight="1">
+      <c r="D643" s="2"/>
+    </row>
+    <row r="644" ht="14.25" customHeight="1">
+      <c r="D644" s="2"/>
+    </row>
+    <row r="645" ht="14.25" customHeight="1">
+      <c r="D645" s="2"/>
+    </row>
+    <row r="646" ht="14.25" customHeight="1">
+      <c r="D646" s="2"/>
+    </row>
+    <row r="647" ht="14.25" customHeight="1">
+      <c r="D647" s="2"/>
+    </row>
+    <row r="648" ht="14.25" customHeight="1">
+      <c r="D648" s="2"/>
+    </row>
+    <row r="649" ht="14.25" customHeight="1">
+      <c r="D649" s="2"/>
+    </row>
+    <row r="650" ht="14.25" customHeight="1">
+      <c r="D650" s="2"/>
+    </row>
+    <row r="651" ht="14.25" customHeight="1">
+      <c r="D651" s="2"/>
+    </row>
+    <row r="652" ht="14.25" customHeight="1">
+      <c r="D652" s="2"/>
+    </row>
+    <row r="653" ht="14.25" customHeight="1">
+      <c r="D653" s="2"/>
+    </row>
+    <row r="654" ht="14.25" customHeight="1">
+      <c r="D654" s="2"/>
+    </row>
+    <row r="655" ht="14.25" customHeight="1">
+      <c r="D655" s="2"/>
+    </row>
+    <row r="656" ht="14.25" customHeight="1">
+      <c r="D656" s="2"/>
+    </row>
+    <row r="657" ht="14.25" customHeight="1">
+      <c r="D657" s="2"/>
+    </row>
+    <row r="658" ht="14.25" customHeight="1">
+      <c r="D658" s="2"/>
+    </row>
+    <row r="659" ht="14.25" customHeight="1">
+      <c r="D659" s="2"/>
+    </row>
+    <row r="660" ht="14.25" customHeight="1">
+      <c r="D660" s="2"/>
+    </row>
+    <row r="661" ht="14.25" customHeight="1">
+      <c r="D661" s="2"/>
+    </row>
+    <row r="662" ht="14.25" customHeight="1">
+      <c r="D662" s="2"/>
+    </row>
+    <row r="663" ht="14.25" customHeight="1">
+      <c r="D663" s="2"/>
+    </row>
+    <row r="664" ht="14.25" customHeight="1">
+      <c r="D664" s="2"/>
+    </row>
+    <row r="665" ht="14.25" customHeight="1">
+      <c r="D665" s="2"/>
+    </row>
+    <row r="666" ht="14.25" customHeight="1">
+      <c r="D666" s="2"/>
+    </row>
+    <row r="667" ht="14.25" customHeight="1">
+      <c r="D667" s="2"/>
+    </row>
+    <row r="668" ht="14.25" customHeight="1">
+      <c r="D668" s="2"/>
+    </row>
+    <row r="669" ht="14.25" customHeight="1">
+      <c r="D669" s="2"/>
+    </row>
+    <row r="670" ht="14.25" customHeight="1">
+      <c r="D670" s="2"/>
+    </row>
+    <row r="671" ht="14.25" customHeight="1">
+      <c r="D671" s="2"/>
+    </row>
+    <row r="672" ht="14.25" customHeight="1">
+      <c r="D672" s="2"/>
+    </row>
+    <row r="673" ht="14.25" customHeight="1">
+      <c r="D673" s="2"/>
+    </row>
+    <row r="674" ht="14.25" customHeight="1">
+      <c r="D674" s="2"/>
+    </row>
+    <row r="675" ht="14.25" customHeight="1">
+      <c r="D675" s="2"/>
+    </row>
+    <row r="676" ht="14.25" customHeight="1">
+      <c r="D676" s="2"/>
+    </row>
+    <row r="677" ht="14.25" customHeight="1">
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678" ht="14.25" customHeight="1">
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679" ht="14.25" customHeight="1">
+      <c r="D679" s="2"/>
+    </row>
+    <row r="680" ht="14.25" customHeight="1">
+      <c r="D680" s="2"/>
+    </row>
+    <row r="681" ht="14.25" customHeight="1">
+      <c r="D681" s="2"/>
+    </row>
+    <row r="682" ht="14.25" customHeight="1">
+      <c r="D682" s="2"/>
+    </row>
+    <row r="683" ht="14.25" customHeight="1">
+      <c r="D683" s="2"/>
+    </row>
+    <row r="684" ht="14.25" customHeight="1">
+      <c r="D684" s="2"/>
+    </row>
+    <row r="685" ht="14.25" customHeight="1">
+      <c r="D685" s="2"/>
+    </row>
+    <row r="686" ht="14.25" customHeight="1">
+      <c r="D686" s="2"/>
+    </row>
+    <row r="687" ht="14.25" customHeight="1">
+      <c r="D687" s="2"/>
+    </row>
+    <row r="688" ht="14.25" customHeight="1">
+      <c r="D688" s="2"/>
+    </row>
+    <row r="689" ht="14.25" customHeight="1">
+      <c r="D689" s="2"/>
+    </row>
+    <row r="690" ht="14.25" customHeight="1">
+      <c r="D690" s="2"/>
+    </row>
+    <row r="691" ht="14.25" customHeight="1">
+      <c r="D691" s="2"/>
+    </row>
+    <row r="692" ht="14.25" customHeight="1">
+      <c r="D692" s="2"/>
+    </row>
+    <row r="693" ht="14.25" customHeight="1">
+      <c r="D693" s="2"/>
+    </row>
+    <row r="694" ht="14.25" customHeight="1">
+      <c r="D694" s="2"/>
+    </row>
+    <row r="695" ht="14.25" customHeight="1">
+      <c r="D695" s="2"/>
+    </row>
+    <row r="696" ht="14.25" customHeight="1">
+      <c r="D696" s="2"/>
+    </row>
+    <row r="697" ht="14.25" customHeight="1">
+      <c r="D697" s="2"/>
+    </row>
+    <row r="698" ht="14.25" customHeight="1">
+      <c r="D698" s="2"/>
+    </row>
+    <row r="699" ht="14.25" customHeight="1">
+      <c r="D699" s="2"/>
+    </row>
+    <row r="700" ht="14.25" customHeight="1">
+      <c r="D700" s="2"/>
+    </row>
+    <row r="701" ht="14.25" customHeight="1">
+      <c r="D701" s="2"/>
+    </row>
+    <row r="702" ht="14.25" customHeight="1">
+      <c r="D702" s="2"/>
+    </row>
+    <row r="703" ht="14.25" customHeight="1">
+      <c r="D703" s="2"/>
+    </row>
+    <row r="704" ht="14.25" customHeight="1">
+      <c r="D704" s="2"/>
+    </row>
+    <row r="705" ht="14.25" customHeight="1">
+      <c r="D705" s="2"/>
+    </row>
+    <row r="706" ht="14.25" customHeight="1">
+      <c r="D706" s="2"/>
+    </row>
+    <row r="707" ht="14.25" customHeight="1">
+      <c r="D707" s="2"/>
+    </row>
+    <row r="708" ht="14.25" customHeight="1">
+      <c r="D708" s="2"/>
+    </row>
+    <row r="709" ht="14.25" customHeight="1">
+      <c r="D709" s="2"/>
+    </row>
+    <row r="710" ht="14.25" customHeight="1">
+      <c r="D710" s="2"/>
+    </row>
+    <row r="711" ht="14.25" customHeight="1">
+      <c r="D711" s="2"/>
+    </row>
+    <row r="712" ht="14.25" customHeight="1">
+      <c r="D712" s="2"/>
+    </row>
+    <row r="713" ht="14.25" customHeight="1">
+      <c r="D713" s="2"/>
+    </row>
+    <row r="714" ht="14.25" customHeight="1">
+      <c r="D714" s="2"/>
+    </row>
+    <row r="715" ht="14.25" customHeight="1">
+      <c r="D715" s="2"/>
+    </row>
+    <row r="716" ht="14.25" customHeight="1">
+      <c r="D716" s="2"/>
+    </row>
+    <row r="717" ht="14.25" customHeight="1">
+      <c r="D717" s="2"/>
+    </row>
+    <row r="718" ht="14.25" customHeight="1">
+      <c r="D718" s="2"/>
+    </row>
+    <row r="719" ht="14.25" customHeight="1">
+      <c r="D719" s="2"/>
+    </row>
+    <row r="720" ht="14.25" customHeight="1">
+      <c r="D720" s="2"/>
+    </row>
+    <row r="721" ht="14.25" customHeight="1">
+      <c r="D721" s="2"/>
+    </row>
+    <row r="722" ht="14.25" customHeight="1">
+      <c r="D722" s="2"/>
+    </row>
+    <row r="723" ht="14.25" customHeight="1">
+      <c r="D723" s="2"/>
+    </row>
+    <row r="724" ht="14.25" customHeight="1">
+      <c r="D724" s="2"/>
+    </row>
+    <row r="725" ht="14.25" customHeight="1">
+      <c r="D725" s="2"/>
+    </row>
+    <row r="726" ht="14.25" customHeight="1">
+      <c r="D726" s="2"/>
+    </row>
+    <row r="727" ht="14.25" customHeight="1">
+      <c r="D727" s="2"/>
+    </row>
+    <row r="728" ht="14.25" customHeight="1">
+      <c r="D728" s="2"/>
+    </row>
+    <row r="729" ht="14.25" customHeight="1">
+      <c r="D729" s="2"/>
+    </row>
+    <row r="730" ht="14.25" customHeight="1">
+      <c r="D730" s="2"/>
+    </row>
+    <row r="731" ht="14.25" customHeight="1">
+      <c r="D731" s="2"/>
+    </row>
+    <row r="732" ht="14.25" customHeight="1">
+      <c r="D732" s="2"/>
+    </row>
+    <row r="733" ht="14.25" customHeight="1">
+      <c r="D733" s="2"/>
+    </row>
+    <row r="734" ht="14.25" customHeight="1">
+      <c r="D734" s="2"/>
+    </row>
+    <row r="735" ht="14.25" customHeight="1">
+      <c r="D735" s="2"/>
+    </row>
+    <row r="736" ht="14.25" customHeight="1">
+      <c r="D736" s="2"/>
+    </row>
+    <row r="737" ht="14.25" customHeight="1">
+      <c r="D737" s="2"/>
+    </row>
+    <row r="738" ht="14.25" customHeight="1">
+      <c r="D738" s="2"/>
+    </row>
+    <row r="739" ht="14.25" customHeight="1">
+      <c r="D739" s="2"/>
+    </row>
+    <row r="740" ht="14.25" customHeight="1">
+      <c r="D740" s="2"/>
+    </row>
+    <row r="741" ht="14.25" customHeight="1">
+      <c r="D741" s="2"/>
+    </row>
+    <row r="742" ht="14.25" customHeight="1">
+      <c r="D742" s="2"/>
+    </row>
+    <row r="743" ht="14.25" customHeight="1">
+      <c r="D743" s="2"/>
+    </row>
+    <row r="744" ht="14.25" customHeight="1">
+      <c r="D744" s="2"/>
+    </row>
+    <row r="745" ht="14.25" customHeight="1">
+      <c r="D745" s="2"/>
+    </row>
+    <row r="746" ht="14.25" customHeight="1">
+      <c r="D746" s="2"/>
+    </row>
+    <row r="747" ht="14.25" customHeight="1">
+      <c r="D747" s="2"/>
+    </row>
+    <row r="748" ht="14.25" customHeight="1">
+      <c r="D748" s="2"/>
+    </row>
+    <row r="749" ht="14.25" customHeight="1">
+      <c r="D749" s="2"/>
+    </row>
+    <row r="750" ht="14.25" customHeight="1">
+      <c r="D750" s="2"/>
+    </row>
+    <row r="751" ht="14.25" customHeight="1">
+      <c r="D751" s="2"/>
+    </row>
+    <row r="752" ht="14.25" customHeight="1">
+      <c r="D752" s="2"/>
+    </row>
+    <row r="753" ht="14.25" customHeight="1">
+      <c r="D753" s="2"/>
+    </row>
+    <row r="754" ht="14.25" customHeight="1">
+      <c r="D754" s="2"/>
+    </row>
+    <row r="755" ht="14.25" customHeight="1">
+      <c r="D755" s="2"/>
+    </row>
+    <row r="756" ht="14.25" customHeight="1">
+      <c r="D756" s="2"/>
+    </row>
+    <row r="757" ht="14.25" customHeight="1">
+      <c r="D757" s="2"/>
+    </row>
+    <row r="758" ht="14.25" customHeight="1">
+      <c r="D758" s="2"/>
+    </row>
+    <row r="759" ht="14.25" customHeight="1">
+      <c r="D759" s="2"/>
+    </row>
+    <row r="760" ht="14.25" customHeight="1">
+      <c r="D760" s="2"/>
+    </row>
+    <row r="761" ht="14.25" customHeight="1">
+      <c r="D761" s="2"/>
+    </row>
+    <row r="762" ht="14.25" customHeight="1">
+      <c r="D762" s="2"/>
+    </row>
+    <row r="763" ht="14.25" customHeight="1">
+      <c r="D763" s="2"/>
+    </row>
+    <row r="764" ht="14.25" customHeight="1">
+      <c r="D764" s="2"/>
+    </row>
+    <row r="765" ht="14.25" customHeight="1">
+      <c r="D765" s="2"/>
+    </row>
+    <row r="766" ht="14.25" customHeight="1">
+      <c r="D766" s="2"/>
+    </row>
+    <row r="767" ht="14.25" customHeight="1">
+      <c r="D767" s="2"/>
+    </row>
+    <row r="768" ht="14.25" customHeight="1">
+      <c r="D768" s="2"/>
+    </row>
+    <row r="769" ht="14.25" customHeight="1">
+      <c r="D769" s="2"/>
+    </row>
+    <row r="770" ht="14.25" customHeight="1">
+      <c r="D770" s="2"/>
+    </row>
+    <row r="771" ht="14.25" customHeight="1">
+      <c r="D771" s="2"/>
+    </row>
+    <row r="772" ht="14.25" customHeight="1">
+      <c r="D772" s="2"/>
+    </row>
+    <row r="773" ht="14.25" customHeight="1">
+      <c r="D773" s="2"/>
+    </row>
+    <row r="774" ht="14.25" customHeight="1">
+      <c r="D774" s="2"/>
+    </row>
+    <row r="775" ht="14.25" customHeight="1">
+      <c r="D775" s="2"/>
+    </row>
+    <row r="776" ht="14.25" customHeight="1">
+      <c r="D776" s="2"/>
+    </row>
+    <row r="777" ht="14.25" customHeight="1">
+      <c r="D777" s="2"/>
+    </row>
+    <row r="778" ht="14.25" customHeight="1">
+      <c r="D778" s="2"/>
+    </row>
+    <row r="779" ht="14.25" customHeight="1">
+      <c r="D779" s="2"/>
+    </row>
+    <row r="780" ht="14.25" customHeight="1">
+      <c r="D780" s="2"/>
+    </row>
+    <row r="781" ht="14.25" customHeight="1">
+      <c r="D781" s="2"/>
+    </row>
+    <row r="782" ht="14.25" customHeight="1">
+      <c r="D782" s="2"/>
+    </row>
+    <row r="783" ht="14.25" customHeight="1">
+      <c r="D783" s="2"/>
+    </row>
+    <row r="784" ht="14.25" customHeight="1">
+      <c r="D784" s="2"/>
+    </row>
+    <row r="785" ht="14.25" customHeight="1">
+      <c r="D785" s="2"/>
+    </row>
+    <row r="786" ht="14.25" customHeight="1">
+      <c r="D786" s="2"/>
+    </row>
+    <row r="787" ht="14.25" customHeight="1">
+      <c r="D787" s="2"/>
+    </row>
+    <row r="788" ht="14.25" customHeight="1">
+      <c r="D788" s="2"/>
+    </row>
+    <row r="789" ht="14.25" customHeight="1">
+      <c r="D789" s="2"/>
+    </row>
+    <row r="790" ht="14.25" customHeight="1">
+      <c r="D790" s="2"/>
+    </row>
+    <row r="791" ht="14.25" customHeight="1">
+      <c r="D791" s="2"/>
+    </row>
+    <row r="792" ht="14.25" customHeight="1">
+      <c r="D792" s="2"/>
+    </row>
+    <row r="793" ht="14.25" customHeight="1">
+      <c r="D793" s="2"/>
+    </row>
+    <row r="794" ht="14.25" customHeight="1">
+      <c r="D794" s="2"/>
+    </row>
+    <row r="795" ht="14.25" customHeight="1">
+      <c r="D795" s="2"/>
+    </row>
+    <row r="796" ht="14.25" customHeight="1">
+      <c r="D796" s="2"/>
+    </row>
+    <row r="797" ht="14.25" customHeight="1">
+      <c r="D797" s="2"/>
+    </row>
+    <row r="798" ht="14.25" customHeight="1">
+      <c r="D798" s="2"/>
+    </row>
+    <row r="799" ht="14.25" customHeight="1">
+      <c r="D799" s="2"/>
+    </row>
+    <row r="800" ht="14.25" customHeight="1">
+      <c r="D800" s="2"/>
+    </row>
+    <row r="801" ht="14.25" customHeight="1">
+      <c r="D801" s="2"/>
+    </row>
+    <row r="802" ht="14.25" customHeight="1">
+      <c r="D802" s="2"/>
+    </row>
+    <row r="803" ht="14.25" customHeight="1">
+      <c r="D803" s="2"/>
+    </row>
+    <row r="804" ht="14.25" customHeight="1">
+      <c r="D804" s="2"/>
+    </row>
+    <row r="805" ht="14.25" customHeight="1">
+      <c r="D805" s="2"/>
+    </row>
+    <row r="806" ht="14.25" customHeight="1">
+      <c r="D806" s="2"/>
+    </row>
+    <row r="807" ht="14.25" customHeight="1">
+      <c r="D807" s="2"/>
+    </row>
+    <row r="808" ht="14.25" customHeight="1">
+      <c r="D808" s="2"/>
+    </row>
+    <row r="809" ht="14.25" customHeight="1">
+      <c r="D809" s="2"/>
+    </row>
+    <row r="810" ht="14.25" customHeight="1">
+      <c r="D810" s="2"/>
+    </row>
+    <row r="811" ht="14.25" customHeight="1">
+      <c r="D811" s="2"/>
+    </row>
+    <row r="812" ht="14.25" customHeight="1">
+      <c r="D812" s="2"/>
+    </row>
+    <row r="813" ht="14.25" customHeight="1">
+      <c r="D813" s="2"/>
+    </row>
+    <row r="814" ht="14.25" customHeight="1">
+      <c r="D814" s="2"/>
+    </row>
+    <row r="815" ht="14.25" customHeight="1">
+      <c r="D815" s="2"/>
+    </row>
+    <row r="816" ht="14.25" customHeight="1">
+      <c r="D816" s="2"/>
+    </row>
+    <row r="817" ht="14.25" customHeight="1">
+      <c r="D817" s="2"/>
+    </row>
+    <row r="818" ht="14.25" customHeight="1">
+      <c r="D818" s="2"/>
+    </row>
+    <row r="819" ht="14.25" customHeight="1">
+      <c r="D819" s="2"/>
+    </row>
+    <row r="820" ht="14.25" customHeight="1">
+      <c r="D820" s="2"/>
+    </row>
+    <row r="821" ht="14.25" customHeight="1">
+      <c r="D821" s="2"/>
+    </row>
+    <row r="822" ht="14.25" customHeight="1">
+      <c r="D822" s="2"/>
+    </row>
+    <row r="823" ht="14.25" customHeight="1">
+      <c r="D823" s="2"/>
+    </row>
+    <row r="824" ht="14.25" customHeight="1">
+      <c r="D824" s="2"/>
+    </row>
+    <row r="825" ht="14.25" customHeight="1">
+      <c r="D825" s="2"/>
+    </row>
+    <row r="826" ht="14.25" customHeight="1">
+      <c r="D826" s="2"/>
+    </row>
+    <row r="827" ht="14.25" customHeight="1">
+      <c r="D827" s="2"/>
+    </row>
+    <row r="828" ht="14.25" customHeight="1">
+      <c r="D828" s="2"/>
+    </row>
+    <row r="829" ht="14.25" customHeight="1">
+      <c r="D829" s="2"/>
+    </row>
+    <row r="830" ht="14.25" customHeight="1">
+      <c r="D830" s="2"/>
+    </row>
+    <row r="831" ht="14.25" customHeight="1">
+      <c r="D831" s="2"/>
+    </row>
+    <row r="832" ht="14.25" customHeight="1">
+      <c r="D832" s="2"/>
+    </row>
+    <row r="833" ht="14.25" customHeight="1">
+      <c r="D833" s="2"/>
+    </row>
+    <row r="834" ht="14.25" customHeight="1">
+      <c r="D834" s="2"/>
+    </row>
+    <row r="835" ht="14.25" customHeight="1">
+      <c r="D835" s="2"/>
+    </row>
+    <row r="836" ht="14.25" customHeight="1">
+      <c r="D836" s="2"/>
+    </row>
+    <row r="837" ht="14.25" customHeight="1">
+      <c r="D837" s="2"/>
+    </row>
+    <row r="838" ht="14.25" customHeight="1">
+      <c r="D838" s="2"/>
+    </row>
+    <row r="839" ht="14.25" customHeight="1">
+      <c r="D839" s="2"/>
+    </row>
+    <row r="840" ht="14.25" customHeight="1">
+      <c r="D840" s="2"/>
+    </row>
+    <row r="841" ht="14.25" customHeight="1">
+      <c r="D841" s="2"/>
+    </row>
+    <row r="842" ht="14.25" customHeight="1">
+      <c r="D842" s="2"/>
+    </row>
+    <row r="843" ht="14.25" customHeight="1">
+      <c r="D843" s="2"/>
+    </row>
+    <row r="844" ht="14.25" customHeight="1">
+      <c r="D844" s="2"/>
+    </row>
+    <row r="845" ht="14.25" customHeight="1">
+      <c r="D845" s="2"/>
+    </row>
+    <row r="846" ht="14.25" customHeight="1">
+      <c r="D846" s="2"/>
+    </row>
+    <row r="847" ht="14.25" customHeight="1">
+      <c r="D847" s="2"/>
+    </row>
+    <row r="848" ht="14.25" customHeight="1">
+      <c r="D848" s="2"/>
+    </row>
+    <row r="849" ht="14.25" customHeight="1">
+      <c r="D849" s="2"/>
+    </row>
+    <row r="850" ht="14.25" customHeight="1">
+      <c r="D850" s="2"/>
+    </row>
+    <row r="851" ht="14.25" customHeight="1">
+      <c r="D851" s="2"/>
+    </row>
+    <row r="852" ht="14.25" customHeight="1">
+      <c r="D852" s="2"/>
+    </row>
+    <row r="853" ht="14.25" customHeight="1">
+      <c r="D853" s="2"/>
+    </row>
+    <row r="854" ht="14.25" customHeight="1">
+      <c r="D854" s="2"/>
+    </row>
+    <row r="855" ht="14.25" customHeight="1">
+      <c r="D855" s="2"/>
+    </row>
+    <row r="856" ht="14.25" customHeight="1">
+      <c r="D856" s="2"/>
+    </row>
+    <row r="857" ht="14.25" customHeight="1">
+      <c r="D857" s="2"/>
+    </row>
+    <row r="858" ht="14.25" customHeight="1">
+      <c r="D858" s="2"/>
+    </row>
+    <row r="859" ht="14.25" customHeight="1">
+      <c r="D859" s="2"/>
+    </row>
+    <row r="860" ht="14.25" customHeight="1">
+      <c r="D860" s="2"/>
+    </row>
+    <row r="861" ht="14.25" customHeight="1">
+      <c r="D861" s="2"/>
+    </row>
+    <row r="862" ht="14.25" customHeight="1">
+      <c r="D862" s="2"/>
+    </row>
+    <row r="863" ht="14.25" customHeight="1">
+      <c r="D863" s="2"/>
+    </row>
+    <row r="864" ht="14.25" customHeight="1">
+      <c r="D864" s="2"/>
+    </row>
+    <row r="865" ht="14.25" customHeight="1">
+      <c r="D865" s="2"/>
+    </row>
+    <row r="866" ht="14.25" customHeight="1">
+      <c r="D866" s="2"/>
+    </row>
+    <row r="867" ht="14.25" customHeight="1">
+      <c r="D867" s="2"/>
+    </row>
+    <row r="868" ht="14.25" customHeight="1">
+      <c r="D868" s="2"/>
+    </row>
+    <row r="869" ht="14.25" customHeight="1">
+      <c r="D869" s="2"/>
+    </row>
+    <row r="870" ht="14.25" customHeight="1">
+      <c r="D870" s="2"/>
+    </row>
+    <row r="871" ht="14.25" customHeight="1">
+      <c r="D871" s="2"/>
+    </row>
+    <row r="872" ht="14.25" customHeight="1">
+      <c r="D872" s="2"/>
+    </row>
+    <row r="873" ht="14.25" customHeight="1">
+      <c r="D873" s="2"/>
+    </row>
+    <row r="874" ht="14.25" customHeight="1">
+      <c r="D874" s="2"/>
+    </row>
+    <row r="875" ht="14.25" customHeight="1">
+      <c r="D875" s="2"/>
+    </row>
+    <row r="876" ht="14.25" customHeight="1">
+      <c r="D876" s="2"/>
+    </row>
+    <row r="877" ht="14.25" customHeight="1">
+      <c r="D877" s="2"/>
+    </row>
+    <row r="878" ht="14.25" customHeight="1">
+      <c r="D878" s="2"/>
+    </row>
+    <row r="879" ht="14.25" customHeight="1">
+      <c r="D879" s="2"/>
+    </row>
+    <row r="880" ht="14.25" customHeight="1">
+      <c r="D880" s="2"/>
+    </row>
+    <row r="881" ht="14.25" customHeight="1">
+      <c r="D881" s="2"/>
+    </row>
+    <row r="882" ht="14.25" customHeight="1">
+      <c r="D882" s="2"/>
+    </row>
+    <row r="883" ht="14.25" customHeight="1">
+      <c r="D883" s="2"/>
+    </row>
+    <row r="884" ht="14.25" customHeight="1">
+      <c r="D884" s="2"/>
+    </row>
+    <row r="885" ht="14.25" customHeight="1">
+      <c r="D885" s="2"/>
+    </row>
+    <row r="886" ht="14.25" customHeight="1">
+      <c r="D886" s="2"/>
+    </row>
+    <row r="887" ht="14.25" customHeight="1">
+      <c r="D887" s="2"/>
+    </row>
+    <row r="888" ht="14.25" customHeight="1">
+      <c r="D888" s="2"/>
+    </row>
+    <row r="889" ht="14.25" customHeight="1">
+      <c r="D889" s="2"/>
+    </row>
+    <row r="890" ht="14.25" customHeight="1">
+      <c r="D890" s="2"/>
+    </row>
+    <row r="891" ht="14.25" customHeight="1">
+      <c r="D891" s="2"/>
+    </row>
+    <row r="892" ht="14.25" customHeight="1">
+      <c r="D892" s="2"/>
+    </row>
+    <row r="893" ht="14.25" customHeight="1">
+      <c r="D893" s="2"/>
+    </row>
+    <row r="894" ht="14.25" customHeight="1">
+      <c r="D894" s="2"/>
+    </row>
+    <row r="895" ht="14.25" customHeight="1">
+      <c r="D895" s="2"/>
+    </row>
+    <row r="896" ht="14.25" customHeight="1">
+      <c r="D896" s="2"/>
+    </row>
+    <row r="897" ht="14.25" customHeight="1">
+      <c r="D897" s="2"/>
+    </row>
+    <row r="898" ht="14.25" customHeight="1">
+      <c r="D898" s="2"/>
+    </row>
+    <row r="899" ht="14.25" customHeight="1">
+      <c r="D899" s="2"/>
+    </row>
+    <row r="900" ht="14.25" customHeight="1">
+      <c r="D900" s="2"/>
+    </row>
+    <row r="901" ht="14.25" customHeight="1">
+      <c r="D901" s="2"/>
+    </row>
+    <row r="902" ht="14.25" customHeight="1">
+      <c r="D902" s="2"/>
+    </row>
+    <row r="903" ht="14.25" customHeight="1">
+      <c r="D903" s="2"/>
+    </row>
+    <row r="904" ht="14.25" customHeight="1">
+      <c r="D904" s="2"/>
+    </row>
+    <row r="905" ht="14.25" customHeight="1">
+      <c r="D905" s="2"/>
+    </row>
+    <row r="906" ht="14.25" customHeight="1">
+      <c r="D906" s="2"/>
+    </row>
+    <row r="907" ht="14.25" customHeight="1">
+      <c r="D907" s="2"/>
+    </row>
+    <row r="908" ht="14.25" customHeight="1">
+      <c r="D908" s="2"/>
+    </row>
+    <row r="909" ht="14.25" customHeight="1">
+      <c r="D909" s="2"/>
+    </row>
+    <row r="910" ht="14.25" customHeight="1">
+      <c r="D910" s="2"/>
+    </row>
+    <row r="911" ht="14.25" customHeight="1">
+      <c r="D911" s="2"/>
+    </row>
+    <row r="912" ht="14.25" customHeight="1">
+      <c r="D912" s="2"/>
+    </row>
+    <row r="913" ht="14.25" customHeight="1">
+      <c r="D913" s="2"/>
+    </row>
+    <row r="914" ht="14.25" customHeight="1">
+      <c r="D914" s="2"/>
+    </row>
+    <row r="915" ht="14.25" customHeight="1">
+      <c r="D915" s="2"/>
+    </row>
+    <row r="916" ht="14.25" customHeight="1">
+      <c r="D916" s="2"/>
+    </row>
+    <row r="917" ht="14.25" customHeight="1">
+      <c r="D917" s="2"/>
+    </row>
+    <row r="918" ht="14.25" customHeight="1">
+      <c r="D918" s="2"/>
+    </row>
+    <row r="919" ht="14.25" customHeight="1">
+      <c r="D919" s="2"/>
+    </row>
+    <row r="920" ht="14.25" customHeight="1">
+      <c r="D920" s="2"/>
+    </row>
+    <row r="921" ht="14.25" customHeight="1">
+      <c r="D921" s="2"/>
+    </row>
+    <row r="922" ht="14.25" customHeight="1">
+      <c r="D922" s="2"/>
+    </row>
+    <row r="923" ht="14.25" customHeight="1">
+      <c r="D923" s="2"/>
+    </row>
+    <row r="924" ht="14.25" customHeight="1">
+      <c r="D924" s="2"/>
+    </row>
+    <row r="925" ht="14.25" customHeight="1">
+      <c r="D925" s="2"/>
+    </row>
+    <row r="926" ht="14.25" customHeight="1">
+      <c r="D926" s="2"/>
+    </row>
+    <row r="927" ht="14.25" customHeight="1">
+      <c r="D927" s="2"/>
+    </row>
+    <row r="928" ht="14.25" customHeight="1">
+      <c r="D928" s="2"/>
+    </row>
+    <row r="929" ht="14.25" customHeight="1">
+      <c r="D929" s="2"/>
+    </row>
+    <row r="930" ht="14.25" customHeight="1">
+      <c r="D930" s="2"/>
+    </row>
+    <row r="931" ht="14.25" customHeight="1">
+      <c r="D931" s="2"/>
+    </row>
+    <row r="932" ht="14.25" customHeight="1">
+      <c r="D932" s="2"/>
+    </row>
+    <row r="933" ht="14.25" customHeight="1">
+      <c r="D933" s="2"/>
+    </row>
+    <row r="934" ht="14.25" customHeight="1">
+      <c r="D934" s="2"/>
+    </row>
+    <row r="935" ht="14.25" customHeight="1">
+      <c r="D935" s="2"/>
+    </row>
+    <row r="936" ht="14.25" customHeight="1">
+      <c r="D936" s="2"/>
+    </row>
+    <row r="937" ht="14.25" customHeight="1">
+      <c r="D937" s="2"/>
+    </row>
+    <row r="938" ht="14.25" customHeight="1">
+      <c r="D938" s="2"/>
+    </row>
+    <row r="939" ht="14.25" customHeight="1">
+      <c r="D939" s="2"/>
+    </row>
+    <row r="940" ht="14.25" customHeight="1">
+      <c r="D940" s="2"/>
+    </row>
+    <row r="941" ht="14.25" customHeight="1">
+      <c r="D941" s="2"/>
+    </row>
+    <row r="942" ht="14.25" customHeight="1">
+      <c r="D942" s="2"/>
+    </row>
+    <row r="943" ht="14.25" customHeight="1">
+      <c r="D943" s="2"/>
+    </row>
+    <row r="944" ht="14.25" customHeight="1">
+      <c r="D944" s="2"/>
+    </row>
+    <row r="945" ht="14.25" customHeight="1">
+      <c r="D945" s="2"/>
+    </row>
+    <row r="946" ht="14.25" customHeight="1">
+      <c r="D946" s="2"/>
+    </row>
+    <row r="947" ht="14.25" customHeight="1">
+      <c r="D947" s="2"/>
+    </row>
+    <row r="948" ht="14.25" customHeight="1">
+      <c r="D948" s="2"/>
+    </row>
+    <row r="949" ht="14.25" customHeight="1">
+      <c r="D949" s="2"/>
+    </row>
+    <row r="950" ht="14.25" customHeight="1">
+      <c r="D950" s="2"/>
+    </row>
+    <row r="951" ht="14.25" customHeight="1">
+      <c r="D951" s="2"/>
+    </row>
+    <row r="952" ht="14.25" customHeight="1">
+      <c r="D952" s="2"/>
+    </row>
+    <row r="953" ht="14.25" customHeight="1">
+      <c r="D953" s="2"/>
+    </row>
+    <row r="954" ht="14.25" customHeight="1">
+      <c r="D954" s="2"/>
+    </row>
+    <row r="955" ht="14.25" customHeight="1">
+      <c r="D955" s="2"/>
+    </row>
+    <row r="956" ht="14.25" customHeight="1">
+      <c r="D956" s="2"/>
+    </row>
+    <row r="957" ht="14.25" customHeight="1">
+      <c r="D957" s="2"/>
+    </row>
+    <row r="958" ht="14.25" customHeight="1">
+      <c r="D958" s="2"/>
+    </row>
+    <row r="959" ht="14.25" customHeight="1">
+      <c r="D959" s="2"/>
+    </row>
+    <row r="960" ht="14.25" customHeight="1">
+      <c r="D960" s="2"/>
+    </row>
+    <row r="961" ht="14.25" customHeight="1">
+      <c r="D961" s="2"/>
+    </row>
+    <row r="962" ht="14.25" customHeight="1">
+      <c r="D962" s="2"/>
+    </row>
+    <row r="963" ht="14.25" customHeight="1">
+      <c r="D963" s="2"/>
+    </row>
+    <row r="964" ht="14.25" customHeight="1">
+      <c r="D964" s="2"/>
+    </row>
+    <row r="965" ht="14.25" customHeight="1">
+      <c r="D965" s="2"/>
+    </row>
+    <row r="966" ht="14.25" customHeight="1">
+      <c r="D966" s="2"/>
+    </row>
+    <row r="967" ht="14.25" customHeight="1">
+      <c r="D967" s="2"/>
+    </row>
+    <row r="968" ht="14.25" customHeight="1">
+      <c r="D968" s="2"/>
+    </row>
+    <row r="969" ht="14.25" customHeight="1">
+      <c r="D969" s="2"/>
+    </row>
+    <row r="970" ht="14.25" customHeight="1">
+      <c r="D970" s="2"/>
+    </row>
+    <row r="971" ht="14.25" customHeight="1">
+      <c r="D971" s="2"/>
+    </row>
+    <row r="972" ht="14.25" customHeight="1">
+      <c r="D972" s="2"/>
+    </row>
+    <row r="973" ht="14.25" customHeight="1">
+      <c r="D973" s="2"/>
+    </row>
+    <row r="974" ht="14.25" customHeight="1">
+      <c r="D974" s="2"/>
+    </row>
+    <row r="975" ht="14.25" customHeight="1">
+      <c r="D975" s="2"/>
+    </row>
+    <row r="976" ht="14.25" customHeight="1">
+      <c r="D976" s="2"/>
+    </row>
+    <row r="977" ht="14.25" customHeight="1">
+      <c r="D977" s="2"/>
+    </row>
+    <row r="978" ht="14.25" customHeight="1">
+      <c r="D978" s="2"/>
+    </row>
+    <row r="979" ht="14.25" customHeight="1">
+      <c r="D979" s="2"/>
+    </row>
+    <row r="980" ht="14.25" customHeight="1">
+      <c r="D980" s="2"/>
+    </row>
+    <row r="981" ht="14.25" customHeight="1">
+      <c r="D981" s="2"/>
+    </row>
+    <row r="982" ht="14.25" customHeight="1">
+      <c r="D982" s="2"/>
+    </row>
+    <row r="983" ht="14.25" customHeight="1">
+      <c r="D983" s="2"/>
+    </row>
+    <row r="984" ht="14.25" customHeight="1">
+      <c r="D984" s="2"/>
+    </row>
+    <row r="985" ht="14.25" customHeight="1">
+      <c r="D985" s="2"/>
+    </row>
+    <row r="986" ht="14.25" customHeight="1">
+      <c r="D986" s="2"/>
+    </row>
+    <row r="987" ht="14.25" customHeight="1">
+      <c r="D987" s="2"/>
+    </row>
+    <row r="988" ht="14.25" customHeight="1">
+      <c r="D988" s="2"/>
+    </row>
+    <row r="989" ht="14.25" customHeight="1">
+      <c r="D989" s="2"/>
+    </row>
+    <row r="990" ht="14.25" customHeight="1">
+      <c r="D990" s="2"/>
+    </row>
+    <row r="991" ht="14.25" customHeight="1">
+      <c r="D991" s="2"/>
+    </row>
+    <row r="992" ht="14.25" customHeight="1">
+      <c r="D992" s="2"/>
+    </row>
+    <row r="993" ht="14.25" customHeight="1">
+      <c r="D993" s="2"/>
+    </row>
+    <row r="994" ht="14.25" customHeight="1">
+      <c r="D994" s="2"/>
+    </row>
+    <row r="995" ht="14.25" customHeight="1">
+      <c r="D995" s="2"/>
+    </row>
+    <row r="996" ht="14.25" customHeight="1">
+      <c r="D996" s="2"/>
+    </row>
+    <row r="997" ht="14.25" customHeight="1">
+      <c r="D997" s="2"/>
+    </row>
+    <row r="998" ht="14.25" customHeight="1">
+      <c r="D998" s="2"/>
+    </row>
+    <row r="999" ht="14.25" customHeight="1">
+      <c r="D999" s="2"/>
+    </row>
+    <row r="1000" ht="14.25" customHeight="1">
+      <c r="D1000" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -385,7 +385,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ほらおいでぇ♥
@@ -527,7 +527,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;どこ行こうとしてるにゃん？
@@ -689,13 +689,27 @@
 アホ！死ね！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Haah... Haah...
+I-I didn't cum...!
+You! I'll get you for this!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;今のはほんのお遊びだし！
 あとでアタシの部屋に来い！
 ぶっ殺してやるにゃ！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I'm gonna be playing for keeps now!
+Come to my room later!
+I'll finish you for good-nya!</t>
+  </si>
+  <si>
     <t>シィナの部屋は2階の右手側だったはず。
 しっかり準備してから挑もう。</t>
+  </si>
+  <si>
+    <t>Shina's room is on the right hand side of the second floor.
+Challenge her only after you're properly prepared.</t>
   </si>
   <si>
     <t>ライムチェイス</t>
@@ -1383,7 +1397,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,582 +1405,582 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -1974,147 +1988,147 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2122,72 +2136,72 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2195,7 +2209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -2203,7 +2217,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -2211,17 +2225,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -2261,444 +2275,453 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D171" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D172" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;はい♥
@@ -1987,6 +1990,9 @@
       <c r="C116" t="s">
         <v>115</v>
       </c>
+      <c r="D116" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
@@ -2135,6 +2141,9 @@
       <c r="C145" t="s">
         <v>145</v>
       </c>
+      <c r="D145" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
@@ -2313,415 +2322,418 @@
       <c r="A174" t="s">
         <v>185</v>
       </c>
+      <c r="D174" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -458,46 +458,84 @@
 ほら、私のこと抱きしめて♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;太ももに挟んじゃった・・・♥
+ねぇ♥逃げるのやめて射精しよ？ほら、私のこと抱きしめて♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
 ムチムチであったかくて逃げたくなくなるでしょー？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
+ムチムチであったかくて逃げたくなくなるでしょー？くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ねーぇ♥
 私の太ももで搾られたくなぁい？くすくす♥
 逃げないでー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Come now-♥
+Don't you wanna get milked by my plush thighs?
+Kuhuhu♥ Don't run away♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あん♥びくって膨らんだ♥
 もう出そうなのね？
 出しなさい♥ほら♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahn♥ It just twitched and got bigger♥
+Are you gonna shoot already? Go on, shoot it out♥ Hora♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ♥
 振りほどこうとすれば振りほどけたのに。
 誘惑に負けちゃったわね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Oh my♥
+And you could have shaken me off if you tried too.
+I guess you ended up losing to my seduction after all huh♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
 足コキしてあげる♥
 あんた踏まれるの好きでしょ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
+足コキしてあげる♥あんた踏まれるの好きでしょ？くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やん♥もうこんなにビンビン♥
 足の裏でもカチカチなの分かる♥
 あははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;やん♥もうこんなにビンビン♥
+足の裏でもカチカチなの分かる♥あははは♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;早く振りほどかないと
 足なんかで射精しちゃうわよー？
 そんな情けないイキ方していいのー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;早く振りほどかないと
+足なんかで射精しちゃうわよー？そんな情けないイキ方していいのー？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
 ねぇ。ねぇねぇ♥
 どーなの？ほら♥ほらどーなのよ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
+ねぇ。ねぇねぇ♥どーなの？ほら♥ほらどーなのよ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんな辛そうな声出しちゃって。
 まさかもう射精するんじゃないでしょうね。</t>
   </si>
@@ -763,51 +801,92 @@
 そのまま横になって踏まれててねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I'll make you submit lots with my feet okay?♥
+Just keep lying down and I'll keep rubbing it♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;スライム足コキを食らえー♥
 にゅるにゅるー♥
 どーだ！どーだ！悪いハンターさんめー！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;My slime footjob is gonna eat you right up♥
+Squishy squishy♥ Take that! And that! Bad Mr. Hunter!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あ！ひょっとしてイキそーになってるー？
 うわー♥
 こんなので射精しちゃうのー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah! Are you on the edge already...?
+Uwah-♥ Are gonna ejaculate because of this-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;うわ・・・♥
 足でイカせるとなんかぞくぞくするー・・・♥
 なるほどー♥なるほどー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Uwah...♥
+So you get all tingly when you cum with my feet♥
+I see-♥ I see-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたー♥
 むぎゅぅぅー♥
 ぎゅっ♥ぎゅっ♥ぎゅーっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Caught you-♥
+Squeeeze♥ Squish♥ Squish♥ Squiiiish♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;\n[1]みっけー♥
 捕まえたよー♥ぎゅぅぅー♥
 もう逃げられないからねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;\n[1]みっけー♥
+捕まえたよー♥ぎゅぅぅー♥もう逃げられないからねー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
 むにゅぅ～～～ん♥
 あはは♥息できないでしょー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
+むにゅぅ～～～ん♥あはは♥息できないでしょー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
 暴れちゃだめー♥むにゅぅー♥
 おっぱいあげるから大人しくしてー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
+暴れちゃだめー♥むにゅぅー♥おっぱいあげるから大人しくしてー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
 苦しいのかなー？
 ねーねー♥くるしー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
+苦しいのかなー？ねーねー♥くるしー？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
 苦しいんじゃなくて嬉しいだったんだねー♥
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
+苦しいんじゃなくて嬉しいだったんだねー♥くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;よいしょ♥
 えへへ♥じっとしててねー？</t>
   </si>
@@ -817,16 +896,28 @@
 もう出しちゃおうよー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;わー♥かったーい♥
+こんなに硬くしながら逃げるの大変でしょー？もう出しちゃおうよー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
 おっぱいで負けさせてあげるからー♥
 ねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
+おっぱいで負けさせてあげるからー♥ねー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 硬いのと柔らかいの、どっちが強いかなー？
 えいっ♥えいっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
+硬いのと柔らかいの、どっちが強いかなー？えいっ♥えいっ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あ！出そうな時の顔してるー♥
 ちょうだいちょうだーい♥</t>
   </si>
@@ -836,16 +927,28 @@
 じゃぁいっぱい食べちゃおー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;やったー♥
+私が捕まえたー♥うれしー♥じゃぁいっぱい食べちゃおー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あうぅ・・・き、気持ちよかった・・・
 だ、ダメだ・・・
 ダメだー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あうぅ・・・き、気持ちよかった・・・
+だ、ダメだ・・・ダメだー。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;次は負けないからー！
 部屋で待ってるよー！
 ぜーったいぐちょぐちょにしてあげるー！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;次は負けないからー！
+部屋で待ってるよー！ぜーったいぐちょぐちょにしてあげるー！</t>
+  </si>
+  <si>
     <t>ライムの部屋は1階のお風呂場だったはず。
 しっかり準備してから挑もう。</t>
   </si>
@@ -862,26 +965,46 @@
 言ってくれればいいのにー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;お風呂覗いちゃうぐらい
+ムラムラしてたのー？言ってくれればいいのにー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるにゅるー♥
 みんなー♥早くこっちきてー♥
 捕まえたよー♪</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;にゅるにゅるー♥
+みんなー♥早くこっちきてー♥捕まえたよー♪</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;足元に注意ー♪
 お風呂では走ったりしちゃいけないんだよー？
 にゅるるるー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;足元に注意ー♪
+お風呂では走ったりしちゃいけないんだよー？にゅるるるー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イっちゃえイっちゃえー♥
 覗きはびゅるびゅるさせちゃうぞー♥
 れろぉ♥じゅる♥れろれろー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;イっちゃえイっちゃえー♥
+覗きはびゅるびゅるさせちゃうぞー♥れろぉ♥じゅる♥れろれろー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わーい♥私の勝ちー♥
 リリー♪シィナ♪
 私の勝ちだよー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;わーい♥私の勝ちー♥
+リリー♪シィナ♪私の勝ちだよー♥</t>
+  </si>
+  <si>
     <t>幻覚トラップ</t>
   </si>
   <si>
@@ -900,11 +1023,19 @@
 ちょっと目を離した隙にぃ・・・</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あー！ずるい！
+それあたしが先に見つけてたのに。ちょっと目を離した隙にぃ・・・</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;先に拾った方が勝ち・・・？
 うーん。そうかも。
 でも納得いかない。</t>
   </si>
   <si>
+    <t>\n&lt;アーコ&gt;先に拾った方が勝ち・・・？
+うーん。そうかも。でも納得いかない。</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あ、いいこと考えた。
 にしし。</t>
   </si>
@@ -922,44 +1053,80 @@
 ねーねー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;どーかな？
+それ譲りたくなってきた？ねーねー。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おねがーい♥
 ちょーだい♥
 ちゅー♥ちゅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;おねがーい♥
+ちょーだい♥ちゅー♥ちゅー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おちんちん触りたくなってきたでしょ。
 自分でしてもいいよ。
 でもオナニーしたらそれあたしのね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;おちんちん触りたくなってきたでしょ。
+自分でしてもいいよ。でもオナニーしたらそれあたしのね♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅーしながらぴゅっぴゅするの
 絶対気持ちいいと思うんだけどなー。
 出すとこ近くで見ててあげるよー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ちゅーしながらぴゅっぴゅするの
+絶対気持ちいいと思うんだけどなー。出すとこ近くで見ててあげるよー？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちょうだーい♥
 そんなものより気持ちいいことしよーよー。
 意地はんないでさー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ちょうだーい♥
+そんなものより気持ちいいことしよーよー。意地はんないでさー。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはは♥うんうん♥いーよ♪
 じゃそれあたしのね♥
 もーらい♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あはは♥うんうん♥いーよ♪
+じゃそれあたしのね♥もーらい♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーだめ。
 これ以上ちゅーしてたらあたしがバカになる。
 おーわり！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あーだめ。
+これ以上ちゅーしてたらあたしがバカになる。おーわり！</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;強情だなぁ。
 もういいや。
 いらない。諦める。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;強情だなぁ。
+もういいや。いらない。諦める。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;でももっかいちゅーしたくなったら
 いつでも言ってね。
 それ貰うけど。ばいばーい！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;でももっかいちゅーしたくなったら
+いつでも言ってね。それ貰うけど。ばいばーい！</t>
   </si>
   <si>
     <t>アニメ回想</t>
@@ -2063,677 +2230,848 @@
       <c r="A130" t="s">
         <v>129</v>
       </c>
+      <c r="D130" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="D131" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="D133" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="D134" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="D135" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="D136" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="D137" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="D138" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C164" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C168" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D171" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D172" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D174" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>195</v>
+        <v>204</v>
+      </c>
+      <c r="D183" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>206</v>
+      </c>
+      <c r="D184" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="D185" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>198</v>
+        <v>210</v>
+      </c>
+      <c r="D186" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="D187" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="D188" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>201</v>
+        <v>216</v>
+      </c>
+      <c r="D189" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>218</v>
+      </c>
+      <c r="D190" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>203</v>
+        <v>220</v>
+      </c>
+      <c r="D191" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>204</v>
+        <v>222</v>
+      </c>
+      <c r="D192" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>205</v>
+        <v>224</v>
+      </c>
+      <c r="D193" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>225</v>
+      </c>
+      <c r="D194" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>207</v>
+        <v>227</v>
+      </c>
+      <c r="D195" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="D196" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>231</v>
+      </c>
+      <c r="D197" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>232</v>
+      </c>
+      <c r="D198" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>211</v>
+        <v>234</v>
+      </c>
+      <c r="D199" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="D200" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>238</v>
+      </c>
+      <c r="D201" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>214</v>
+        <v>239</v>
+      </c>
+      <c r="D202" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>240</v>
+      </c>
+      <c r="D203" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>216</v>
+        <v>241</v>
+      </c>
+      <c r="D204" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>217</v>
+        <v>243</v>
+      </c>
+      <c r="D205" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>218</v>
+        <v>245</v>
+      </c>
+      <c r="D206" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>219</v>
+        <v>247</v>
+      </c>
+      <c r="D207" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>220</v>
+        <v>249</v>
+      </c>
+      <c r="D208" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>221</v>
+        <v>251</v>
+      </c>
+      <c r="D209" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>222</v>
+        <v>252</v>
+      </c>
+      <c r="D210" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>223</v>
+        <v>253</v>
+      </c>
+      <c r="D211" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>224</v>
+        <v>254</v>
+      </c>
+      <c r="D212" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>255</v>
+      </c>
+      <c r="D213" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>257</v>
+      </c>
+      <c r="D214" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>259</v>
+      </c>
+      <c r="D215" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="D216" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>261</v>
+      </c>
+      <c r="D217" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>262</v>
+      </c>
+      <c r="D218" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>264</v>
+      </c>
+      <c r="D219" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>232</v>
+        <v>266</v>
+      </c>
+      <c r="D220" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>233</v>
+        <v>268</v>
+      </c>
+      <c r="D221" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>234</v>
+        <v>270</v>
+      </c>
+      <c r="D222" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>235</v>
+        <v>272</v>
+      </c>
+      <c r="D223" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>236</v>
+        <v>274</v>
+      </c>
+      <c r="D224" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>237</v>
+        <v>276</v>
+      </c>
+      <c r="D225" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>238</v>
+        <v>278</v>
+      </c>
+      <c r="D226" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>280</v>
+      </c>
+      <c r="D227" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>240</v>
+        <v>281</v>
+      </c>
+      <c r="D228" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>241</v>
+        <v>282</v>
+      </c>
+      <c r="D229" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>283</v>
+      </c>
+      <c r="D230" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -29,6 +29,22 @@
     <t xml:space="preserve"> &lt;enemy:100&gt;</t>
   </si>
   <si>
+    <t>ーーーーーー敵から受けるダメージーーーーーー</t>
+  </si>
+  <si>
+    <t>ーーーーーーーー被ダメエフェクトーーーーーーー</t>
+  </si>
+  <si>
+    <t>灯り 3 1 255 0.1</t>
+  </si>
+  <si>
+    <t>ーーーーーー基礎ヤラレモーションーーーーーー</t>
+  </si>
+  <si>
+    <t>0ちーんｗ 1倒れ 2ばたんきゅ 3溶ける 4燃える
+5射精 6吹っ飛ばす 7逃げこけ　8潰れる</t>
+  </si>
+  <si>
     <t>29パーブル</t>
   </si>
   <si>
@@ -93,6 +109,9 @@
   </si>
   <si>
     <t>&lt;enemy:99&gt;&lt;CG不透明度:1,255&gt;&lt;CG不透明度:2,100&gt;</t>
+  </si>
+  <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
   </si>
   <si>
     <t>シープ</t>
@@ -753,6 +772,9 @@
     <t>ライムチェイス</t>
   </si>
   <si>
+    <t>寝パイズリ</t>
+  </si>
+  <si>
     <t>ライム</t>
   </si>
   <si>
@@ -787,6 +809,9 @@
 もっとパイズリしよ♥</t>
   </si>
   <si>
+    <t>足コキ</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;うりうりうりぃー♥
 にゅるにゅる足コキでイっちゃえー♥
 あはははー♥</t>
@@ -833,6 +858,9 @@
 I see-♥ I see-♥</t>
   </si>
   <si>
+    <t>圧迫</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたー♥
 むぎゅぅぅー♥
 ぎゅっ♥ぎゅっ♥ぎゅーっ♥</t>
@@ -1014,6 +1042,12 @@
     <t>アーコイベ</t>
   </si>
   <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
     <t>うぉ・・・！
 凄く高級そうなものが入っていた！</t>
   </si>
@@ -1044,6 +1078,12 @@
 それ渡したくなることしたげる。</t>
   </si>
   <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅぅぅー♥
 ちゅっ♥ちゅっ♥</t>
   </si>
@@ -1075,6 +1115,9 @@
 自分でしてもいいよ。でもオナニーしたらそれあたしのね♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅーしながらぴゅっぴゅするの
 絶対気持ちいいと思うんだけどなー。
 出すとこ近くで見ててあげるよー？</t>
@@ -1102,6 +1145,9 @@
 じゃそれあたしのね♥もーらい♥</t>
   </si>
   <si>
+    <t>--------ここからクリア------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーだめ。
 これ以上ちゅーしてたらあたしがバカになる。
 おーわり！</t>
@@ -1229,6 +1275,98 @@
   <si>
     <t>『効果音』の選択肢から音を変更することが出来ます。
 音は再生速度によって速さが自動で変更されます。</t>
+  </si>
+  <si>
+    <t>アーコアイテム</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;\n[1]、これ持って行って。
+早くみんなを助けよう！</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;リリーと\n[1]が一緒に行動してるのって
+なんか変だね。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;今だけよ。
+敵の敵は味方。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;うーん、この研究所は何なんだろう。
+何のために・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;使えるもの見つけたよ！
+持って行って！お金は取らないから。
+今はね。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;リリー、\n[1]とケンカしちゃだめだよ。
+仲良くね。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;煽ってんの？</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;こういうとこって多分、
+非常口とかあると思うんだよね。
+私、探してみとく。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;こんな場所があるなんて全然分からなかったなぁ。
+森の中の、霧の中の、地面の下なんて。
+よっぽど隠したかったんだろうね。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;地下の研究所なんて絶対悪いこと考えてるじゃん。
+シィナ達が心配だよ・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;草が邪魔な時は斬るか燃やせばいいよ。
+何か隠れてるかもしれないし。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;沢山人間が住んでる場所の上で暮らしてたなんて
+リリー鈍すぎない？</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;オークとかシィナとかうるさいのがいたから・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;また何か見つけたらあげるね！</t>
+  </si>
+  <si>
+    <t>手がかり</t>
+  </si>
+  <si>
+    <t>ERS_テンプレートランダム生成 70 1 2 3 0 0</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;\n[1]・・・！？
+こっちこっち・・・！</t>
+  </si>
+  <si>
+    <t>・・・！
+アーコ！</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;うわぁ、随分小さくなったね。
+淫魔が集まってるから、何かと思ったら・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;お薬お薬・・・
+確か状態異常のお薬が・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;戻った。
+よしよし。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;ふぅ。助かったわ。
+ありがとう。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;ほいほい。</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,1503 +1713,2247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="B100">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="D130" t="s">
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="D131" t="s">
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="D133" t="s">
+      <c r="B136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>139</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B138" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>141</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>143</v>
       </c>
-      <c r="D137" t="s">
+      <c r="B140" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>145</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B141" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="B142" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="B143" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="D145" t="s">
+      <c r="B146" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>168</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>170</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>172</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+      <c r="B165" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>176</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B166" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>178</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B167" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>180</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+      <c r="B169" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>182</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B170" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>184</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B171" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="B172" t="s">
         <v>187</v>
       </c>
-      <c r="D170" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+      <c r="B173" t="s">
         <v>189</v>
       </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="B174" t="s">
         <v>191</v>
       </c>
-      <c r="D172" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+      <c r="B175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+      <c r="B176" t="s">
         <v>194</v>
       </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+      <c r="B177" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+      <c r="B178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="B182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>204</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>206</v>
       </c>
-      <c r="D184" t="s">
+      <c r="B185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+      <c r="B186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>208</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B187" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>210</v>
       </c>
-      <c r="D186" t="s">
+      <c r="B189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+      <c r="B190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>212</v>
       </c>
-      <c r="D187" t="s">
+      <c r="B191" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>214</v>
       </c>
-      <c r="D188" t="s">
+      <c r="B192" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>216</v>
       </c>
-      <c r="D189" t="s">
+      <c r="B193" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>218</v>
       </c>
-      <c r="D190" t="s">
+      <c r="B194" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>220</v>
       </c>
-      <c r="D191" t="s">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="B196" t="s">
         <v>222</v>
       </c>
-      <c r="D192" t="s">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+      <c r="B197" t="s">
         <v>224</v>
       </c>
-      <c r="D193" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>225</v>
       </c>
-      <c r="D194" t="s">
+      <c r="B198" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>227</v>
       </c>
-      <c r="D195" t="s">
+      <c r="B199" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>229</v>
       </c>
-      <c r="D196" t="s">
+      <c r="B200" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>231</v>
       </c>
-      <c r="D197" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+      <c r="B201" t="s">
         <v>232</v>
       </c>
-      <c r="D198" t="s">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="B202" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>234</v>
       </c>
-      <c r="D199" t="s">
+      <c r="B203" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>236</v>
       </c>
-      <c r="D200" t="s">
+      <c r="B204" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>238</v>
       </c>
-      <c r="D201" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+      <c r="B205" t="s">
         <v>239</v>
       </c>
-      <c r="D202" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>240</v>
       </c>
-      <c r="D203" t="s">
+      <c r="B206" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>241</v>
       </c>
-      <c r="D204" t="s">
+      <c r="B207" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
         <v>243</v>
       </c>
-      <c r="D205" t="s">
+      <c r="B208" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>245</v>
       </c>
-      <c r="D206" t="s">
+      <c r="B209" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>247</v>
       </c>
-      <c r="D207" t="s">
+      <c r="B210" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+      <c r="B211" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>249</v>
       </c>
-      <c r="D208" t="s">
+      <c r="B212" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
+      <c r="B213" t="s">
         <v>251</v>
       </c>
-      <c r="D209" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>252</v>
       </c>
-      <c r="D210" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
+      <c r="B214" t="s">
         <v>253</v>
       </c>
-      <c r="D211" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>254</v>
       </c>
-      <c r="D212" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+      <c r="B215" t="s">
         <v>255</v>
       </c>
-      <c r="D213" t="s">
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
+      <c r="B216" t="s">
         <v>257</v>
       </c>
-      <c r="D214" t="s">
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
+      <c r="B217" t="s">
         <v>259</v>
       </c>
-      <c r="D215" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>260</v>
       </c>
-      <c r="D216" t="s">
+      <c r="B218" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>261</v>
       </c>
-      <c r="D217" t="s">
+      <c r="B219" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>262</v>
       </c>
-      <c r="D218" t="s">
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>264</v>
       </c>
-      <c r="D219" t="s">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
+      <c r="B223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>266</v>
       </c>
-      <c r="D220" t="s">
+      <c r="B224" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>268</v>
       </c>
-      <c r="D221" t="s">
+      <c r="B225" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>270</v>
       </c>
-      <c r="D222" t="s">
+      <c r="B226" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
+      <c r="B227" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>272</v>
       </c>
-      <c r="D223" t="s">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>274</v>
       </c>
-      <c r="D224" t="s">
+      <c r="B230" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+      <c r="B231" t="s">
         <v>276</v>
       </c>
-      <c r="D225" t="s">
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+      <c r="B232" t="s">
         <v>278</v>
       </c>
-      <c r="D226" t="s">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+      <c r="B233" t="s">
         <v>280</v>
       </c>
-      <c r="D227" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>281</v>
       </c>
-      <c r="D228" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>282</v>
       </c>
-      <c r="D229" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
+      <c r="B235" t="s">
         <v>283</v>
       </c>
-      <c r="D230" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
+      <c r="B236" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+      <c r="B237" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
+      <c r="B239" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
+      <c r="B240" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="B242" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="B243" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="B244" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="B245" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="B246" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="B247" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="B248" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="B249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="B250" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="B251" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="B252" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="B253" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="B254" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="B255" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>309</v>
+      </c>
+      <c r="B256" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>310</v>
+      </c>
+      <c r="B257" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>311</v>
+      </c>
+      <c r="B258" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>312</v>
+      </c>
+      <c r="B259" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>313</v>
+      </c>
+      <c r="B260" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>314</v>
+      </c>
+      <c r="B261" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>315</v>
+      </c>
+      <c r="B262" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>316</v>
+      </c>
+      <c r="B263" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>317</v>
+      </c>
+      <c r="B264" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>318</v>
+      </c>
+      <c r="B265" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>319</v>
+      </c>
+      <c r="B266" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>320</v>
+      </c>
+      <c r="B267" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>321</v>
+      </c>
+      <c r="B268" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>322</v>
+      </c>
+      <c r="B269" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>323</v>
+      </c>
+      <c r="B270" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>324</v>
+      </c>
+      <c r="B271" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map001.xlsx
+++ b/data/Map001.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1F64A-962D-432E-8351-9EEB016AB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-7395" yWindow="2040" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="360">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -477,19 +482,11 @@
 ほら、私のこと抱きしめて♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;太ももに挟んじゃった・・・♥
-ねぇ♥逃げるのやめて射精しよ？ほら、私のこと抱きしめて♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
 ムチムチであったかくて逃げたくなくなるでしょー？
 くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
-ムチムチであったかくて逃げたくなくなるでしょー？くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;ねーぇ♥
 私の太ももで搾られたくなぁい？くすくす♥
 逃げないでー♥</t>
@@ -524,10 +521,6 @@
 あんた踏まれるの好きでしょ？くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
-足コキしてあげる♥あんた踏まれるの好きでしょ？くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;やん♥もうこんなにビンビン♥
 足の裏でもカチカチなの分かる♥
 あははは♥</t>
@@ -542,19 +535,11 @@
 そんな情けないイキ方していいのー？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;早く振りほどかないと
-足なんかで射精しちゃうわよー？そんな情けないイキ方していいのー？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
 ねぇ。ねぇねぇ♥
 どーなの？ほら♥ほらどーなのよ♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
-ねぇ。ねぇねぇ♥どーなの？ほら♥ほらどーなのよ♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;そんな辛そうな声出しちゃって。
 まさかもう射精するんじゃないでしょうね。</t>
   </si>
@@ -875,46 +860,26 @@
 もう逃げられないからねー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;\n[1]みっけー♥
-捕まえたよー♥ぎゅぅぅー♥もう逃げられないからねー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
 むにゅぅ～～～ん♥
 あはは♥息できないでしょー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
-むにゅぅ～～～ん♥あはは♥息できないでしょー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
 暴れちゃだめー♥むにゅぅー♥
 おっぱいあげるから大人しくしてー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
-暴れちゃだめー♥むにゅぅー♥おっぱいあげるから大人しくしてー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
 苦しいのかなー？
 ねーねー♥くるしー？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
-苦しいのかなー？ねーねー♥くるしー？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
 苦しいんじゃなくて嬉しいだったんだねー♥
 くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
-苦しいんじゃなくて嬉しいだったんだねー♥くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;よいしょ♥
 えへへ♥じっとしててねー？</t>
   </si>
@@ -924,28 +889,16 @@
 もう出しちゃおうよー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;わー♥かったーい♥
-こんなに硬くしながら逃げるの大変でしょー？もう出しちゃおうよー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
 おっぱいで負けさせてあげるからー♥
 ねー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
-おっぱいで負けさせてあげるからー♥ねー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 硬いのと柔らかいの、どっちが強いかなー？
 えいっ♥えいっ♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
-硬いのと柔らかいの、どっちが強いかなー？えいっ♥えいっ♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あ！出そうな時の顔してるー♥
 ちょうだいちょうだーい♥</t>
   </si>
@@ -955,10 +908,6 @@
 じゃぁいっぱい食べちゃおー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;やったー♥
-私が捕まえたー♥うれしー♥じゃぁいっぱい食べちゃおー♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あうぅ・・・き、気持ちよかった・・・
 だ、ダメだ・・・
 ダメだー。</t>
@@ -1367,19 +1316,121 @@
   </si>
   <si>
     <t>\n&lt;アーコ&gt;ほいほい。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Gotcha♥
+I'll give you a footjob♥ You like being stepped on,\ndon't you? Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you don't shake me off quick, you'll ejaculate
+on my feet. What a pathetic way to live,\ndon't you think?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You just got yourself caught on purpose.
+Hey. Hey, hey♥ How's that feel?\nHora♥ Feels nice?♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Such a pained cry you let out.
+I wonder if you'll ejacaulate again?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My my. This one is so weak.
+Aahh, the game ends with a footjob.
+Patheic♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ Gotcha♥
+Now that you're here, all that's left is to ejaculate.
+Go on, don't resist♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Got you between my thighs...♥
+Hey♥ Just quit running and ejaculate, huh?/nHug me really tightly...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aren't my thighs so plump and warm? You can't
+want to run away while you're between them. Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nya-ha♥ You came again, nya♥
+The hunter's guilty pleasure, nyaa.
+You've stained the floor, nyaan.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Looks nya～mmy♥
+Liick～♥
+Sluuuuuuurpp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your sperm's all gonna die when they melt in my belly.
+Sluuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sluurp... Gulp♥
+Nyahaha! That's your loss, nyan.
+I'll drink it all up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Huupp♥
+Ehehe♥ Would you stay still-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I♥ got-♥ cha♥
+It must be really tough breaking free while\nyou're so stiff-? Just let it all out-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you done running for the day-?
+You can accept defeat between my tits-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Jiggle jiggle-♥
+Between your hard thing and my soft things,\nwhich will prevail-? C'mon♥ c'mon♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah! You make a face when you're about to cum-♥
+Gimme gimmeee-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There it is-♥
+I'm so glad I caught you-♥\nNow I'm gonna eat a bunch-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Uhuhuhu-♥
+My slimy footjob will make you cum-♥
+Ahahaha-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Does \n[1] enjoy being touched by feet-?
+That makes you a masochist-♥
+Did you know that-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I found \n[1]-♥
+Caught you-♥ Squiiish-♥\nYou can't escape anymore-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Drown in my boobs-♥
+Squiiiiiish～♥ Ahahah♥ You can't breath-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah! Ah! You're not running away-?
+Don't struggle-♥ Squiish-♥\nI'll give you my boobs if you behave-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're all muffled. Are you saying something?
+I wonder if this hurts-? \nHey- hey-♥ Is this painful-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah-♥ Your sperm is coming out-?
+It must not hurt. I'm glad-♥ Hee hee♥</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1390,28 +1441,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1701,19 +1764,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B200" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1745,32 +1809,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +1858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1858,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +1946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +1970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +1986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1930,7 +1994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +2002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1946,12 +2010,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +2023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +2031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +2039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +2055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1999,7 +2063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2007,7 +2071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +2087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2047,7 +2111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2063,7 +2127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2079,7 +2143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2087,7 +2151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2095,7 +2159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2111,7 +2175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2119,7 +2183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2127,7 +2191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2135,7 +2199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2159,7 +2223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2167,7 +2231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2175,7 +2239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2191,7 +2255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2263,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2215,7 +2279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2231,7 +2295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2247,7 +2311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2255,7 +2319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2263,7 +2327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2271,7 +2335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2279,7 +2343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2287,7 +2351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2295,7 +2359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2303,7 +2367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2319,7 +2383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2327,7 +2391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2335,7 +2399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2343,7 +2407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2351,7 +2415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2367,7 +2431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2375,7 +2439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2383,7 +2447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2391,7 +2455,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2399,7 +2463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2407,7 +2471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2415,7 +2479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2423,7 +2487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2431,7 +2495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2447,7 +2511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2455,7 +2519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2471,7 +2535,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2479,7 +2543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2487,7 +2551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>51</v>
       </c>
@@ -2495,7 +2559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2503,7 +2567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2511,7 +2575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2519,7 +2583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2527,7 +2591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2535,7 +2599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2543,7 +2607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2551,7 +2615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2559,7 +2623,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2567,7 +2631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2575,7 +2639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2583,7 +2647,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2591,7 +2655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2599,7 +2663,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2607,7 +2671,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2615,7 +2679,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2623,7 +2687,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2631,7 +2695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2639,7 +2703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2647,7 +2711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2655,7 +2719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2663,7 +2727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2671,7 +2735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2679,7 +2743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2687,7 +2751,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2695,7 +2759,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2703,7 +2767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2711,7 +2775,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2719,7 +2783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2727,7 +2791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2735,7 +2799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2743,7 +2807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2751,7 +2815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2759,7 +2823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2767,1207 +2831,1197 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="B135" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B137" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>143</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
         <v>145</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B143" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>147</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B145" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B146" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B150" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>154</v>
       </c>
-      <c r="B146" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B151" t="s">
         <v>155</v>
       </c>
-      <c r="B147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>156</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>157</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>158</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>159</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>161</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B157" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>162</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B158" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>163</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B159" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>164</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B160" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>165</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B161" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>166</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B162" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>167</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B163" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>168</v>
       </c>
-      <c r="B159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B164" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>169</v>
       </c>
-      <c r="B160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B165" t="s">
         <v>170</v>
       </c>
-      <c r="B161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>171</v>
       </c>
-      <c r="B162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B166" t="s">
         <v>172</v>
       </c>
-      <c r="B163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>173</v>
       </c>
-      <c r="B164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B167" t="s">
         <v>174</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B168" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>176</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B170" t="s">
         <v>178</v>
       </c>
-      <c r="B167" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="B168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>181</v>
       </c>
-      <c r="B169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B172" t="s">
         <v>182</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B173" t="s">
         <v>184</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B174" t="s">
         <v>186</v>
       </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B175" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>188</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B176" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>190</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>192</v>
       </c>
-      <c r="B175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B178" t="s">
         <v>193</v>
       </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>195</v>
       </c>
-      <c r="B177" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B181" t="s">
         <v>197</v>
       </c>
-      <c r="B178" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B182" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>199</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B183" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B184" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>201</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B185" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B186" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>203</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B187" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>204</v>
       </c>
-      <c r="B183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+    </row>
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>205</v>
       </c>
-      <c r="B184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B189" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>206</v>
       </c>
-      <c r="B185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B190" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>207</v>
       </c>
-      <c r="B186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B191" t="s">
         <v>208</v>
       </c>
-      <c r="B187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B192" t="s">
         <v>210</v>
       </c>
-      <c r="B189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>211</v>
       </c>
-      <c r="B190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B193" t="s">
         <v>212</v>
       </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B194" t="s">
         <v>214</v>
       </c>
-      <c r="B192" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>216</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B196" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>218</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B197" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B198" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B199" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>221</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B200" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B201" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>223</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B202" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B203" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>225</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B204" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B205" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>227</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B206" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B207" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>229</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B208" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>231</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B209" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>233</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B210" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>234</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B211" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B212" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>236</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B213" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>238</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B214" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>240</v>
       </c>
-      <c r="B206" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B215" t="s">
         <v>241</v>
       </c>
-      <c r="B207" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B216" t="s">
         <v>243</v>
       </c>
-      <c r="B208" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B217" t="s">
         <v>245</v>
       </c>
-      <c r="B209" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B218" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>247</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B219" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>248</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B220" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>249</v>
       </c>
-      <c r="B212" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>250</v>
       </c>
-      <c r="B213" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B223" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>252</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B224" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>254</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B225" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>256</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B226" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B227" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>258</v>
       </c>
-      <c r="B217" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>260</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B230" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>261</v>
       </c>
-      <c r="B219" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B231" t="s">
         <v>262</v>
       </c>
-      <c r="B220" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B232" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>265</v>
       </c>
-      <c r="B223" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B233" t="s">
         <v>266</v>
       </c>
-      <c r="B224" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>268</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B235" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>270</v>
       </c>
-      <c r="B226" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B236" t="s">
         <v>271</v>
       </c>
-      <c r="B227" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B237" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>274</v>
       </c>
-      <c r="B230" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>275</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B239" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>277</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B240" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>279</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B241" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B242" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>282</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B243" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B244" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>284</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B245" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B246" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>286</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B247" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B248" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B249" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>289</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B250" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B251" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>291</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B252" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B253" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>293</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B254" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B255" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>295</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B256" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>296</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B257" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>297</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B258" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>298</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B259" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>299</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B260" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>300</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B261" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>301</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B262" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>302</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B263" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>303</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B264" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>304</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B265" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>305</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B266" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>306</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B267" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>307</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B268" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>308</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B269" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>309</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B270" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>310</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B271" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>311</v>
       </c>
-      <c r="B258" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>312</v>
       </c>
-      <c r="B259" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>313</v>
       </c>
-      <c r="B260" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>314</v>
       </c>
-      <c r="B261" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>315</v>
       </c>
-      <c r="B262" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>316</v>
       </c>
-      <c r="B263" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>317</v>
       </c>
-      <c r="B264" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>318</v>
       </c>
-      <c r="B265" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>319</v>
       </c>
-      <c r="B266" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>320</v>
       </c>
-      <c r="B267" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>321</v>
       </c>
-      <c r="B268" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>322</v>
       </c>
-      <c r="B269" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>323</v>
       </c>
-      <c r="B270" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>324</v>
       </c>
-      <c r="B271" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>348</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>